--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7419D3FD-C6F0-47C1-A741-0DC1862B7F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA215C6F-3557-41C8-9B88-AFD1C250EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="地图界面" sheetId="1" r:id="rId1"/>
     <sheet name="战斗界面" sheetId="4" r:id="rId2"/>
     <sheet name="菜单界面" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="685">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2807,6 +2806,50 @@
   </si>
   <si>
     <t>13.75ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_DialogShatterEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框 - 方块粉碎效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.06ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.18ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureShatterEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 方块粉碎效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60.12ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.49ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.16ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.62ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3043,20 +3086,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3073,7 +3110,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3082,8 +3125,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3428,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H143"/>
+  <dimension ref="A2:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3456,101 +3499,101 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="26" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3587,12 +3630,12 @@
       <c r="C14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -3604,12 +3647,12 @@
       <c r="C15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3621,12 +3664,12 @@
       <c r="C16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -3638,12 +3681,12 @@
       <c r="C17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -3655,12 +3698,12 @@
       <c r="C18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -3672,12 +3715,12 @@
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -3689,12 +3732,12 @@
       <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -3706,12 +3749,12 @@
       <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -3723,12 +3766,12 @@
       <c r="C22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -3740,12 +3783,12 @@
       <c r="C23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -3757,12 +3800,12 @@
       <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -3774,12 +3817,12 @@
       <c r="C25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -3791,12 +3834,12 @@
       <c r="C26" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -3808,12 +3851,12 @@
       <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -3825,12 +3868,12 @@
       <c r="C28" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -3856,13 +3899,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="15" t="s">
@@ -3879,13 +3922,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -3917,7 +3960,7 @@
       <c r="E33" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>665</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -4081,12 +4124,12 @@
       <c r="C44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -4121,12 +4164,12 @@
       <c r="C46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -4355,12 +4398,12 @@
       <c r="C59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
@@ -4418,12 +4461,12 @@
       <c r="C62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -4527,12 +4570,12 @@
       <c r="C67" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
@@ -4659,12 +4702,12 @@
       <c r="C73" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
@@ -4676,12 +4719,12 @@
       <c r="C74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -4716,12 +4759,12 @@
       <c r="C76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
@@ -4756,12 +4799,12 @@
       <c r="C78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
@@ -4773,12 +4816,12 @@
       <c r="C80" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -4974,12 +5017,12 @@
       <c r="C90" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -4991,12 +5034,12 @@
       <c r="C91" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -5354,12 +5397,12 @@
       <c r="C121" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D121" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="23"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
@@ -5371,12 +5414,12 @@
       <c r="C122" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="23"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
@@ -5388,12 +5431,12 @@
       <c r="C123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
@@ -5405,12 +5448,12 @@
       <c r="C124" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="23"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
@@ -5422,12 +5465,12 @@
       <c r="C126" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
@@ -5439,12 +5482,12 @@
       <c r="C127" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
     </row>
     <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
@@ -5456,12 +5499,12 @@
       <c r="C128" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
@@ -5564,135 +5607,216 @@
       <c r="C135" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D135" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="22"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>220</v>
+      <c r="E135" s="23"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="23"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" s="6" t="s">
+      <c r="C139" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E139" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F139" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>337</v>
+        <v>679</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>338</v>
+        <v>680</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D140" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>14</v>
+      <c r="D140" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>523</v>
+        <v>337</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>524</v>
+        <v>338</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="D142" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D142:G142"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
@@ -5708,41 +5832,6 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5781,86 +5870,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="30" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -5897,12 +5986,12 @@
       <c r="C13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -5914,12 +6003,12 @@
       <c r="C14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -5931,12 +6020,12 @@
       <c r="C15" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -5965,12 +6054,12 @@
       <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -5982,12 +6071,12 @@
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -5999,12 +6088,12 @@
       <c r="C19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -6016,12 +6105,12 @@
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -6033,12 +6122,12 @@
       <c r="C21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -6050,12 +6139,12 @@
       <c r="C22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -6067,12 +6156,12 @@
       <c r="C23" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -6084,12 +6173,12 @@
       <c r="C24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -6101,12 +6190,12 @@
       <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -6118,12 +6207,12 @@
       <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -6135,12 +6224,12 @@
       <c r="C27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -6480,12 +6569,12 @@
       <c r="C57" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -6739,12 +6828,12 @@
       <c r="C83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -6756,12 +6845,12 @@
       <c r="C84" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -6773,12 +6862,12 @@
       <c r="C85" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -6790,12 +6879,12 @@
       <c r="C86" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
@@ -6807,12 +6896,12 @@
       <c r="C88" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -6824,12 +6913,12 @@
       <c r="C89" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="D89" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -6858,12 +6947,12 @@
       <c r="C91" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D91" s="23" t="s">
+      <c r="D91" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -6875,12 +6964,12 @@
       <c r="C92" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
@@ -6892,12 +6981,12 @@
       <c r="C93" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D93" s="23" t="s">
+      <c r="D93" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
@@ -6931,12 +7020,12 @@
       <c r="C97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
@@ -7042,15 +7131,19 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D92:G92"/>
     <mergeCell ref="D26:G26"/>
@@ -7067,22 +7160,18 @@
     <mergeCell ref="D83:G83"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="D89:G89"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7121,86 +7210,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="26" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="30" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -7237,12 +7326,12 @@
       <c r="C13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -7254,12 +7343,12 @@
       <c r="C14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -7271,12 +7360,12 @@
       <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7305,12 +7394,12 @@
       <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -7322,12 +7411,12 @@
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="23" t="s">
         <v>614</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -7339,12 +7428,12 @@
       <c r="C19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -7356,12 +7445,12 @@
       <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -7373,12 +7462,12 @@
       <c r="C21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -7390,12 +7479,12 @@
       <c r="C22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -7407,12 +7496,12 @@
       <c r="C23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -7424,12 +7513,12 @@
       <c r="C24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -7441,12 +7530,12 @@
       <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -7458,12 +7547,12 @@
       <c r="C26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -7475,12 +7564,12 @@
       <c r="C27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -7580,12 +7669,12 @@
       <c r="C37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -7597,12 +7686,12 @@
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -7614,12 +7703,12 @@
       <c r="C40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
@@ -7631,12 +7720,12 @@
       <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
@@ -7671,12 +7760,12 @@
       <c r="C43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -7688,12 +7777,12 @@
       <c r="C44" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -7705,12 +7794,12 @@
       <c r="C45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -7722,12 +7811,12 @@
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -7739,12 +7828,12 @@
       <c r="C48" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
@@ -7756,12 +7845,12 @@
       <c r="C49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -7795,12 +7884,12 @@
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -7812,12 +7901,12 @@
       <c r="C55" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -7829,12 +7918,12 @@
       <c r="C56" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -7846,12 +7935,12 @@
       <c r="C58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -7896,12 +7985,12 @@
       <c r="C62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -7913,12 +8002,12 @@
       <c r="C63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
@@ -7930,12 +8019,12 @@
       <c r="C64" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -7947,12 +8036,12 @@
       <c r="C65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
@@ -7964,12 +8053,12 @@
       <c r="C66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
@@ -8047,12 +8136,12 @@
       <c r="C74" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -8064,12 +8153,12 @@
       <c r="C75" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
@@ -8125,12 +8214,12 @@
       <c r="C80" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -8142,12 +8231,12 @@
       <c r="C81" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
@@ -8159,12 +8248,12 @@
       <c r="C82" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -8176,12 +8265,12 @@
       <c r="C83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -8193,12 +8282,12 @@
       <c r="C84" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -8210,12 +8299,12 @@
       <c r="C85" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -8271,12 +8360,12 @@
       <c r="C91" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D91" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -8333,12 +8422,12 @@
       <c r="C96" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D96" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
@@ -8350,12 +8439,12 @@
       <c r="C97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
@@ -8367,12 +8456,12 @@
       <c r="C98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
@@ -8384,12 +8473,12 @@
       <c r="C99" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
@@ -8412,12 +8501,12 @@
       <c r="C101" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
@@ -8465,13 +8554,45 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D62:G62"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -8488,61 +8609,16 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA215C6F-3557-41C8-9B88-AFD1C250EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523FEBE-7718-46E0-8373-2A0CEC526F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -30,6 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>drill_up:</t>
@@ -39,6 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -46,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -54,6 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>drill_up:</t>
@@ -63,6 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -88,6 +92,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">drill_up:
@@ -111,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="697">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,19 +222,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图 - 简单光源精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drill_EventFrame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66.54ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOG_LimitedVisibility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,22 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOG_CharShatterEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行走图 - 粉碎效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOG_CharacterMotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行走图 - 呼吸效果 + 动作效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行走图 - 多帧行走图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2850,6 +2827,82 @@
   </si>
   <si>
     <t>50.62ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 显现动作效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 消失动作效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 持续动作效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureFadeInEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureFadeOutEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureContinuedEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.35ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.23ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.34ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.61ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.30ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.82ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.89ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.41ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.94ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2857,7 +2910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2895,6 +2948,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2902,6 +2956,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2910,13 +2965,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3086,7 +3134,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3473,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3488,7 +3536,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3500,96 +3548,96 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="8"/>
       <c r="D12" s="26" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -3598,13 +3646,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
@@ -3622,16 +3670,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -3639,16 +3687,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
@@ -3656,16 +3704,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -3673,16 +3721,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -3690,16 +3738,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>622</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -3707,16 +3755,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -3724,16 +3772,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -3741,16 +3789,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -3758,16 +3806,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D22" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3775,16 +3823,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -3792,16 +3840,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3809,16 +3857,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3826,16 +3874,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3843,16 +3891,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3860,16 +3908,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -3877,22 +3925,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -3900,13 +3948,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>14</v>
@@ -3918,117 +3966,117 @@
         <v>14</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>14</v>
+      <c r="A32" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>28</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>662</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>664</v>
+        <v>33</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>190</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>395</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>190</v>
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>397</v>
+        <v>43</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -4036,502 +4084,520 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>646</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>647</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>166</v>
+        <v>43</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>643</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>164</v>
+        <v>644</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>14</v>
+      <c r="H42" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="C43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+        <v>72</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>190</v>
+        <v>22</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>586</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>130</v>
+        <v>43</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>589</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>8</v>
+        <v>148</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>650</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>5</v>
+        <v>652</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>653</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>6</v>
+        <v>654</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>572</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>574</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>657</v>
+        <v>573</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>658</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>661</v>
+        <v>43</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>579</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>581</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>147</v>
+        <v>398</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>148</v>
+        <v>399</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>586</v>
+        <v>392</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>633</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>634</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>405</v>
+        <v>43</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>406</v>
+        <v>635</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>399</v>
+        <v>636</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>404</v>
+        <v>584</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>14</v>
@@ -4539,22 +4605,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>640</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>641</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>644</v>
+        <v>143</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>642</v>
+        <v>145</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>643</v>
+        <v>381</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>14</v>
@@ -4562,39 +4628,45 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>590</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>591</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>399</v>
+        <v>523</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -4602,22 +4674,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>387</v>
+        <v>143</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>388</v>
+        <v>155</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
@@ -4625,68 +4697,56 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>598</v>
+        <v>533</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>161</v>
+        <v>569</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>162</v>
+        <v>570</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>14</v>
@@ -4694,16 +4754,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>541</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>540</v>
+        <v>379</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
@@ -4711,728 +4771,705 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>101</v>
+        <v>539</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>535</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+        <v>550</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>545</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>546</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+        <v>551</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>541</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>127</v>
+        <v>562</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="C85" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>555</v>
+        <v>43</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>556</v>
+        <v>386</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="C88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B89" s="16" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>145</v>
+        <v>43</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>116</v>
+        <v>525</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>552</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>532</v>
+        <v>115</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>187</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H98" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H99" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H100" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="H101" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H102" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="H103" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="H108" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="H109" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="H110" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="H112" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="H113" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>220</v>
+      <c r="H117" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="A118" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E118" s="23"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="23"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E120" s="23"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="23"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
+      <c r="B121" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>413</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E121" s="23"/>
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-    </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>307</v>
+        <v>629</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>308</v>
+        <v>630</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E123" s="23"/>
       <c r="F123" s="23"/>
@@ -5440,232 +5477,267 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>309</v>
+        <v>631</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>310</v>
+        <v>632</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E124" s="23"/>
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
     </row>
+    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+    </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>636</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>637</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>638</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>639</v>
+        <v>129</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-    </row>
-    <row r="128" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>661</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>132</v>
+        <v>662</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>14</v>
+        <v>314</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>668</v>
+        <v>315</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>673</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E132" s="23"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="23"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>319</v>
+        <v>667</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>220</v>
+        <v>668</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="E135" s="23"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
+        <v>324</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="E137" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="E136" s="7" t="s">
+      <c r="F137" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>678</v>
+      <c r="G137" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>329</v>
+        <v>685</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>220</v>
+        <v>682</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>332</v>
+        <v>686</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>334</v>
+        <v>683</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>354</v>
+        <v>43</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>693</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>14</v>
@@ -5673,39 +5745,39 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>683</v>
+        <v>43</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>678</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E142" s="24"/>
       <c r="F142" s="24"/>
@@ -5713,22 +5785,22 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>14</v>
@@ -5736,45 +5808,45 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>14</v>
@@ -5782,29 +5854,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D122:G122"/>
     <mergeCell ref="D123:G123"/>
     <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D120:G120"/>
     <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D71:G71"/>
     <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
     <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
@@ -5859,7 +5931,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -5871,30 +5943,30 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5902,11 +5974,11 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="31" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5914,11 +5986,11 @@
       <c r="B7" s="25"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5926,11 +5998,11 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5940,12 +6012,12 @@
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="18"/>
       <c r="D11" s="26" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -5954,40 +6026,40 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -5995,16 +6067,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -6012,16 +6084,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>410</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -6029,16 +6101,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -6046,16 +6118,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>622</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -6063,16 +6135,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -6080,16 +6152,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -6097,16 +6169,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -6114,16 +6186,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -6131,16 +6203,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -6148,16 +6220,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -6165,16 +6237,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -6182,16 +6254,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -6199,16 +6271,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -6216,16 +6288,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -6233,82 +6305,82 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
@@ -6316,55 +6388,55 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -6372,205 +6444,205 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="E47" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
@@ -6578,258 +6650,258 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
@@ -6837,16 +6909,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
@@ -6854,16 +6926,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
@@ -6871,16 +6943,16 @@
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
@@ -6888,16 +6960,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -6905,16 +6977,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -6922,16 +6994,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
@@ -6939,16 +7011,16 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -6956,16 +7028,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -6973,16 +7045,16 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -6990,38 +7062,38 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
@@ -7029,33 +7101,33 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>14</v>
@@ -7063,70 +7135,70 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7147,6 +7219,8 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D92:G92"/>
     <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D90:G90"/>
     <mergeCell ref="D21:G21"/>
@@ -7154,12 +7228,6 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
     <mergeCell ref="D93:G93"/>
     <mergeCell ref="D88:G88"/>
     <mergeCell ref="D11:G11"/>
@@ -7172,6 +7240,10 @@
     <mergeCell ref="D89:G89"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D83:G83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7182,10 +7254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H106"/>
+  <dimension ref="A2:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7199,7 +7271,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7211,30 +7283,30 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7242,11 +7314,11 @@
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="31" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7254,11 +7326,11 @@
       <c r="B7" s="25"/>
       <c r="C7" s="35"/>
       <c r="D7" s="27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7266,11 +7338,11 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7280,12 +7352,12 @@
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="21"/>
       <c r="D11" s="26" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
@@ -7294,40 +7366,40 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
@@ -7335,16 +7407,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
@@ -7352,16 +7424,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>410</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -7369,16 +7441,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
@@ -7386,16 +7458,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>622</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -7403,16 +7475,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -7420,16 +7492,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -7437,16 +7509,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -7454,16 +7526,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -7471,16 +7543,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -7488,16 +7560,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -7505,16 +7577,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -7522,16 +7594,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -7539,16 +7611,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -7556,16 +7628,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -7573,104 +7645,104 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -7678,16 +7750,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -7695,16 +7767,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -7712,16 +7784,16 @@
     </row>
     <row r="41" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -7729,39 +7801,39 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -7769,16 +7841,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -7786,16 +7858,16 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -7803,16 +7875,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -7820,16 +7892,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -7837,16 +7909,16 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -7854,38 +7926,38 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -7893,16 +7965,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -7910,16 +7982,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -7927,16 +7999,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -7944,49 +8016,49 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -7994,16 +8066,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
@@ -8011,16 +8083,16 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -8028,16 +8100,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -8045,16 +8117,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
@@ -8062,82 +8134,82 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
@@ -8145,16 +8217,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
@@ -8162,60 +8234,60 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
@@ -8223,16 +8295,16 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
@@ -8240,16 +8312,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
@@ -8257,16 +8329,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
@@ -8274,16 +8346,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
@@ -8291,173 +8363,173 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>476</v>
+        <v>679</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+        <v>474</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>519</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="F94" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="G94" s="34" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>190</v>
+        <v>480</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>491</v>
+      <c r="A96" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>632</v>
-      </c>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
+        <v>482</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
@@ -8465,16 +8537,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="23"/>
@@ -8482,27 +8554,33 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
-        <v>620</v>
+        <v>489</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="23"/>
@@ -8510,61 +8588,91 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>634</v>
+        <v>491</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>635</v>
+        <v>492</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>504</v>
+      <c r="A104" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>628</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="D101:G101"/>
+  <mergeCells count="64">
+    <mergeCell ref="D103:G103"/>
     <mergeCell ref="D82:G82"/>
     <mergeCell ref="D83:G83"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D93:G93"/>
     <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
     <mergeCell ref="D98:G98"/>
     <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E523FEBE-7718-46E0-8373-2A0CEC526F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49078126-D3A4-4D4E-A6B2-8607AF6DF7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="726">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1542,10 +1542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1敌人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1674,10 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18.74ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2012,14 +2004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MiniInformationWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件 - 详细信息窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddBarsToOptionsScene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2903,6 +2887,138 @@
   </si>
   <si>
     <t>24.94ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureShortcut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 快捷操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_EventOtherCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体 - 事件页出现条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_DialogSingleSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框 - 简易对话图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  8.82ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.04ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.65ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.79ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.24ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.41ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.15ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.80ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6.77ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.94ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.26ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  23.34ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.67ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.19ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.08ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.32ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.61ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.34ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.59ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.04ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.57ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件 - 模块信息窗口 - YEP插件信息扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT_X_YEPPluginInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT_ObjectInfoWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件 - 模块信息窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3069,7 +3185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3140,8 +3256,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3158,22 +3286,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3519,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H145"/>
+  <dimension ref="A2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3547,101 +3669,101 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3678,131 +3800,131 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -3814,12 +3936,12 @@
       <c r="C22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -3831,12 +3953,12 @@
       <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -3848,12 +3970,12 @@
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+      <c r="D24" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -3865,12 +3987,12 @@
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -3882,12 +4004,12 @@
       <c r="C26" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+      <c r="D26" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -3899,12 +4021,12 @@
       <c r="C27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -3916,12 +4038,12 @@
       <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="D28" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -3934,13 +4056,13 @@
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
@@ -3971,25 +4093,25 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>660</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -4010,8 +4132,20 @@
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>183</v>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -4021,8 +4155,20 @@
       <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>388</v>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -4032,8 +4178,20 @@
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>183</v>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -4047,13 +4205,13 @@
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -4084,25 +4242,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -4116,13 +4274,13 @@
         <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -4149,12 +4307,12 @@
       <c r="C43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -4189,12 +4347,12 @@
       <c r="C45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
@@ -4324,22 +4482,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>14</v>
@@ -4370,22 +4528,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
@@ -4393,24 +4551,24 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="D56" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>139</v>
@@ -4433,22 +4591,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>14</v>
@@ -4456,62 +4614,56 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>696</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>697</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+        <v>698</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>581</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>582</v>
+        <v>396</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>583</v>
+        <v>397</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>14</v>
@@ -4519,22 +4671,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>576</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>397</v>
+        <v>578</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>391</v>
+        <v>579</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>14</v>
@@ -4542,22 +4694,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>633</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>634</v>
+        <v>79</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>637</v>
+        <v>180</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>635</v>
+        <v>389</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>636</v>
+        <v>391</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>14</v>
@@ -4565,62 +4717,62 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>630</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D65" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>380</v>
+        <v>580</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>14</v>
@@ -4628,22 +4780,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>590</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>591</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>592</v>
+        <v>379</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>593</v>
+        <v>145</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>594</v>
+        <v>380</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>14</v>
@@ -4651,22 +4803,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>586</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>587</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>392</v>
+        <v>590</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -4674,22 +4826,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>156</v>
+      <c r="D69" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>154</v>
+        <v>519</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
@@ -4697,176 +4849,176 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>534</v>
+        <v>152</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>533</v>
+        <v>153</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="D70" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>84</v>
+        <v>530</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>529</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D72" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>379</v>
+        <v>87</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="D73" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="D75" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>564</v>
+        <v>546</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>14</v>
@@ -4874,68 +5026,68 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>532</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="F80" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="E80" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>541</v>
+        <v>98</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>540</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G81" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G81" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>537</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>14</v>
@@ -4943,68 +5095,68 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F84" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D83" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>14</v>
+      <c r="G84" s="15" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>136</v>
+      <c r="D86" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>138</v>
+        <v>386</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>14</v>
@@ -5012,125 +5164,125 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+      <c r="D88" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>524</v>
+        <v>110</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>529</v>
+        <v>43</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>543</v>
+        <v>112</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>14</v>
+        <v>548</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>539</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>117</v>
+        <v>562</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>118</v>
+        <v>563</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>119</v>
+        <v>564</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>14</v>
@@ -5138,44 +5290,56 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>382</v>
+        <v>117</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>383</v>
+        <v>118</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>183</v>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>183</v>
@@ -5183,10 +5347,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>183</v>
@@ -5194,10 +5358,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>183</v>
@@ -5205,10 +5369,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>183</v>
@@ -5216,10 +5380,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>183</v>
@@ -5227,10 +5391,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>183</v>
@@ -5238,10 +5402,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>183</v>
@@ -5249,32 +5413,32 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>213</v>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>213</v>
@@ -5282,10 +5446,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>213</v>
@@ -5293,10 +5457,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>213</v>
@@ -5304,10 +5468,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>213</v>
@@ -5315,10 +5479,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>213</v>
@@ -5326,10 +5490,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>213</v>
@@ -5337,10 +5501,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>213</v>
@@ -5348,43 +5512,43 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H115" s="1" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>297</v>
+      <c r="A117" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>213</v>
@@ -5392,164 +5556,152 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="16" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
+        <v>297</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>299</v>
+      <c r="A119" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D120" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
+      <c r="D120" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D121" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="23" t="s">
+      <c r="D121" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D124" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-    </row>
-    <row r="125" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D124" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>627</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>628</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D126" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>14</v>
@@ -5557,44 +5709,56 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>213</v>
@@ -5602,119 +5766,113 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="E132" s="23"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
+        <v>695</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>670</v>
+      <c r="D133" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>704</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>671</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>322</v>
+        <v>663</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>14</v>
+        <v>664</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>672</v>
+        <v>322</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>671</v>
+        <v>324</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>14</v>
@@ -5722,22 +5880,22 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>686</v>
+        <v>325</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>683</v>
+        <v>327</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>693</v>
+      <c r="D139" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>14</v>
@@ -5745,150 +5903,184 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G140" s="1" t="s">
+      <c r="E141" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>330</v>
+        <v>682</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>331</v>
+        <v>679</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
+      <c r="D142" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>332</v>
+        <v>683</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>333</v>
+        <v>680</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>351</v>
+      <c r="D143" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>349</v>
+        <v>692</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="E145" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F145" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G145" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="52">
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
@@ -5904,6 +6096,43 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5914,10 +6143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H105"/>
+  <dimension ref="A2:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -5942,86 +6171,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="30" t="s">
+      <c r="A5" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="35"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6040,12 +6269,10 @@
       <c r="E12" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>356</v>
-      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -6058,131 +6285,131 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="D16" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -6194,12 +6421,12 @@
       <c r="C21" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -6211,12 +6438,12 @@
       <c r="C22" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -6228,12 +6455,12 @@
       <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="D23" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -6245,12 +6472,12 @@
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -6262,12 +6489,12 @@
       <c r="C25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="D25" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -6279,12 +6506,12 @@
       <c r="C26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -6296,12 +6523,12 @@
       <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -6379,12 +6606,12 @@
       <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
+      <c r="D35" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
@@ -6430,13 +6657,13 @@
         <v>43</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -6444,25 +6671,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -6633,20 +6860,20 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="D57" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -6892,20 +7119,20 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="D83" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -6917,12 +7144,12 @@
       <c r="C84" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+      <c r="D84" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -6934,12 +7161,12 @@
       <c r="C85" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="D85" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -6951,46 +7178,46 @@
       <c r="C86" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
+      <c r="D86" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -7002,12 +7229,12 @@
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="D90" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -7019,12 +7246,12 @@
       <c r="C91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -7036,29 +7263,29 @@
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="24" t="s">
+      <c r="D92" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
@@ -7078,156 +7305,262 @@
       <c r="B96" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="C96" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>335</v>
+        <v>693</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>336</v>
+        <v>694</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>364</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>709</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>213</v>
+        <v>326</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>339</v>
+        <v>668</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>340</v>
+        <v>669</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>366</v>
+        <v>670</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>368</v>
+        <v>671</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>672</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D35:G35"/>
+  <mergeCells count="49">
     <mergeCell ref="D93:G93"/>
     <mergeCell ref="D88:G88"/>
     <mergeCell ref="D11:G11"/>
@@ -7244,6 +7577,39 @@
     <mergeCell ref="D57:G57"/>
     <mergeCell ref="D86:G86"/>
     <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D99:G99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7254,10 +7620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H108"/>
+  <dimension ref="A2:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7282,86 +7648,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="32" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="30" t="s">
+      <c r="A5" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="31" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="35"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -7375,16 +7741,16 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -7398,131 +7764,131 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="D16" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="D17" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -7534,12 +7900,12 @@
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -7551,12 +7917,12 @@
       <c r="C22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -7568,12 +7934,12 @@
       <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
+      <c r="D23" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -7585,12 +7951,12 @@
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -7602,12 +7968,12 @@
       <c r="C25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -7619,12 +7985,12 @@
       <c r="C26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -7636,12 +8002,12 @@
       <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -7741,12 +8107,12 @@
       <c r="C37" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -7758,12 +8124,12 @@
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
+      <c r="D39" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -7775,12 +8141,12 @@
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="D40" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
@@ -7792,34 +8158,34 @@
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="D41" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -7832,12 +8198,12 @@
       <c r="C43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -7849,12 +8215,12 @@
       <c r="C44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+      <c r="D44" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -7866,12 +8232,12 @@
       <c r="C45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -7883,12 +8249,12 @@
       <c r="C47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="D47" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -7900,12 +8266,12 @@
       <c r="C48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
@@ -7917,12 +8283,12 @@
       <c r="C49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -7956,12 +8322,12 @@
       <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
+      <c r="D53" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
@@ -7973,12 +8339,12 @@
       <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
+      <c r="D55" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
@@ -7990,36 +8356,36 @@
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="D56" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="D58" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>183</v>
@@ -8027,10 +8393,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>183</v>
@@ -8038,10 +8404,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>183</v>
@@ -8049,95 +8415,95 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="23" t="s">
-        <v>625</v>
-      </c>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="D62" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+      <c r="D63" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="D64" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="D65" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>626</v>
-      </c>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="D66" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>183</v>
@@ -8145,10 +8511,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>183</v>
@@ -8156,10 +8522,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>183</v>
@@ -8167,10 +8533,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>183</v>
@@ -8178,10 +8544,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>183</v>
@@ -8189,10 +8555,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>183</v>
@@ -8200,44 +8566,44 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="D74" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="D75" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>183</v>
@@ -8245,10 +8611,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>183</v>
@@ -8256,10 +8622,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>183</v>
@@ -8267,10 +8633,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>183</v>
@@ -8278,146 +8644,146 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+      <c r="D80" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="C81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+      <c r="D81" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+      <c r="D82" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="D83" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+      <c r="D84" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="D85" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
+      <c r="D86" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
+      <c r="D87" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>183</v>
@@ -8425,10 +8791,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>183</v>
@@ -8436,10 +8802,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>473</v>
+        <v>724</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>474</v>
+        <v>725</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>183</v>
@@ -8447,10 +8813,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>475</v>
+        <v>723</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>476</v>
+        <v>722</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>183</v>
@@ -8458,190 +8824,190 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
+        <v>472</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H94" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="F96" s="34" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="E97" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="F97" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G96" s="34" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>183</v>
+      <c r="G97" s="37" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="16" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>625</v>
-      </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
+        <v>478</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
+      <c r="D99" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
+      <c r="D100" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D101" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
+      <c r="D101" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
-        <v>613</v>
+        <v>487</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
+        <v>488</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="H106" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B105" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>183</v>
@@ -8649,42 +9015,51 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
     <mergeCell ref="D81:G81"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
@@ -8701,29 +9076,31 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D80:G80"/>
     <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49078126-D3A4-4D4E-A6B2-8607AF6DF7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633255F-3650-47ED-81A6-4A8D8F03F576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="749">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3019,6 +3019,98 @@
   </si>
   <si>
     <t>控件 - 模块信息窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_GaugeOfBufferTimeBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 缓冲时间条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_GaugeOfBufferTimeNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI - 缓冲时间数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.52ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.86ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46.33ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.82ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.24ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.01ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.52ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  30.04ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  31.74ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_CoreOfGaugeNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_CoreOfGaugeMeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统 - 参数条核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统 - 参数数字核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  30.04ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  52.86ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.33ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  43.67ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  暂无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3262,15 +3354,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3286,16 +3369,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3641,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H148"/>
+  <dimension ref="A2:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3674,10 +3766,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11" t="s">
         <v>56</v>
       </c>
@@ -3688,10 +3780,10 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -3702,38 +3794,38 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -3753,17 +3845,17 @@
       <c r="C10" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -3928,67 +4020,67 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>741</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>742</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>740</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>744</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -3996,16 +4088,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4013,16 +4105,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -4030,165 +4122,153 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>651</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>652</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>653</v>
+      <c r="D32" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>183</v>
+      <c r="A33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>651</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>652</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
+      <c r="D34" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -4196,22 +4276,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>387</v>
+        <v>718</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>717</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>388</v>
+        <v>716</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -4219,22 +4299,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>157</v>
+      <c r="D38" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>715</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -4242,107 +4322,113 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>642</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>643</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>640</v>
+      <c r="D39" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>641</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>64</v>
+        <v>642</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>643</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>511</v>
+      <c r="D41" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>183</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>143</v>
@@ -4356,67 +4442,61 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>183</v>
+        <v>73</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>43</v>
@@ -4425,7 +4505,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>17</v>
@@ -4436,22 +4516,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>14</v>
@@ -4459,22 +4539,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>14</v>
@@ -4482,22 +4562,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>581</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>585</v>
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>14</v>
@@ -4505,22 +4585,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>14</v>
@@ -4528,188 +4608,188 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>650</v>
+      <c r="D54" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>568</v>
+        <v>646</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>696</v>
+        <v>569</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>697</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>571</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>572</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>696</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>697</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>576</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>577</v>
+        <v>75</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>14</v>
@@ -4717,22 +4797,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>629</v>
+        <v>576</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>630</v>
+        <v>577</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>633</v>
+      <c r="D64" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>632</v>
+        <v>390</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>14</v>
@@ -4740,39 +4820,45 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>629</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>630</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>580</v>
+        <v>43</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>390</v>
+        <v>631</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>390</v>
+        <v>632</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>14</v>
@@ -4780,45 +4866,39 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D67" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>586</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>587</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -4826,22 +4906,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>518</v>
+        <v>379</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>519</v>
+        <v>145</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
@@ -4849,22 +4929,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>586</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>587</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>154</v>
+        <v>589</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
+        <v>590</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>14</v>
@@ -4872,67 +4952,73 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>529</v>
+        <v>83</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
+      <c r="D71" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>530</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>87</v>
+        <v>529</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>43</v>
@@ -4946,22 +5032,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>14</v>
@@ -4969,399 +5055,417 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
     </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>534</v>
+        <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>535</v>
+        <v>96</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D86" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E86" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="F84" s="15" t="s">
+      <c r="F86" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G86" s="15" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B88" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B89" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B90" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D90" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D91" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>116</v>
+        <v>539</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>381</v>
+        <v>562</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>382</v>
+        <v>563</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>183</v>
@@ -5369,10 +5473,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>183</v>
@@ -5380,10 +5484,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>183</v>
@@ -5391,10 +5495,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>183</v>
@@ -5402,10 +5506,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>183</v>
@@ -5413,10 +5517,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>183</v>
@@ -5424,43 +5528,43 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>213</v>
@@ -5468,10 +5572,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>213</v>
@@ -5479,10 +5583,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>213</v>
@@ -5490,10 +5594,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>213</v>
@@ -5501,10 +5605,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>213</v>
@@ -5512,10 +5616,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>213</v>
@@ -5523,128 +5627,157 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>297</v>
+      <c r="A118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>404</v>
+      <c r="A119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>413</v>
+        <v>739</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>299</v>
+      <c r="A120" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>301</v>
+      <c r="A121" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>727</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>303</v>
+      <c r="A122" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>729</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>625</v>
+        <v>298</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>626</v>
+        <v>299</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
@@ -5652,319 +5785,278 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>627</v>
+        <v>300</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>628</v>
+        <v>301</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>625</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
+        <v>626</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D128" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>662</v>
-      </c>
+      <c r="D129" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>213</v>
+        <v>127</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D133" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="E133" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>704</v>
+      <c r="D133" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
+        <v>662</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>663</v>
+        <v>312</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>667</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>322</v>
+        <v>699</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>213</v>
+        <v>700</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>693</v>
+        <v>318</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>694</v>
+        <v>320</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D138" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>325</v>
+        <v>663</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>348</v>
+      <c r="D139" s="7" t="s">
+        <v>673</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>347</v>
+        <v>665</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G140" s="1" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>681</v>
+        <v>322</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>14</v>
+        <v>324</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>14</v>
@@ -5972,62 +6064,91 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>683</v>
+        <v>325</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>680</v>
+        <v>327</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>692</v>
+      <c r="D143" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>330</v>
+        <v>681</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>331</v>
+        <v>678</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D145" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
+      <c r="D145" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>332</v>
+        <v>682</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>333</v>
+        <v>679</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>351</v>
+      <c r="D146" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>349</v>
+        <v>689</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>14</v>
@@ -6035,53 +6156,157 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="7" t="s">
+      <c r="C151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="6" t="s">
+      <c r="C152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F152" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="56">
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D14:G14"/>
     <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D26:G26"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="A7:C7"/>
@@ -6096,43 +6321,6 @@
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D59:G59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6143,10 +6331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H112"/>
+  <dimension ref="A2:H116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6176,10 +6364,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6190,10 +6378,10 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -6202,34 +6390,34 @@
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -6240,17 +6428,17 @@
       <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6269,10 +6457,10 @@
       <c r="E12" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -6336,12 +6524,12 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -6413,67 +6601,67 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>741</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>742</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>747</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>740</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -6481,16 +6669,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -6498,16 +6686,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
@@ -6515,49 +6703,61 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>213</v>
@@ -6565,10 +6765,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>213</v>
@@ -6576,49 +6776,43 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>215</v>
+      <c r="A34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>213</v>
@@ -6626,21 +6820,27 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>213</v>
@@ -6648,78 +6848,78 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>226</v>
+        <v>644</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>213</v>
+        <v>645</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>213</v>
@@ -6727,10 +6927,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>213</v>
@@ -6738,10 +6938,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>213</v>
@@ -6749,33 +6949,21 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>309</v>
+        <v>233</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>213</v>
@@ -6783,54 +6971,66 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>213</v>
@@ -6838,10 +7038,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>213</v>
@@ -6849,10 +7049,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>213</v>
@@ -6860,49 +7060,49 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
+        <v>251</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>254</v>
+        <v>398</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>213</v>
@@ -6910,10 +7110,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>213</v>
@@ -6921,10 +7121,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>213</v>
@@ -6932,10 +7132,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>213</v>
@@ -6943,10 +7143,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>213</v>
@@ -6954,10 +7154,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>213</v>
@@ -6965,10 +7165,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>213</v>
@@ -6976,43 +7176,43 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>213</v>
@@ -7020,10 +7220,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>213</v>
@@ -7031,10 +7231,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>213</v>
@@ -7042,10 +7242,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>213</v>
@@ -7053,10 +7253,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>213</v>
@@ -7064,10 +7264,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>213</v>
@@ -7075,196 +7275,196 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>297</v>
+      <c r="A82" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>404</v>
+      <c r="A83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>415</v>
+        <v>738</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>299</v>
+      <c r="A84" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>408</v>
+        <v>737</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>301</v>
+      <c r="A85" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>727</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>303</v>
+        <v>43</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>729</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>625</v>
+        <v>298</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>626</v>
+        <v>299</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>627</v>
+        <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>628</v>
+        <v>301</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>128</v>
+        <v>625</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>129</v>
+        <v>626</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
@@ -7272,10 +7472,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>43</v>
@@ -7287,108 +7487,131 @@
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
     </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+    </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>328</v>
+        <v>128</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
+      <c r="D97" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>663</v>
+        <v>312</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+        <v>313</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>321</v>
+        <v>699</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>701</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>693</v>
+        <v>317</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>694</v>
+        <v>319</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>709</v>
+        <v>414</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -7396,79 +7619,44 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>325</v>
+        <v>663</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>326</v>
+        <v>664</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D103" s="24" t="s">
+        <v>705</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>681</v>
+        <v>321</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>711</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
@@ -7476,93 +7664,212 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>683</v>
+        <v>325</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>680</v>
+        <v>326</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
+      <c r="D107" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>335</v>
+        <v>681</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>678</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>711</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>682</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E115" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="D93:G93"/>
+  <mergeCells count="55">
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D92:G92"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -7570,46 +7877,13 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D93:G93"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="D90:G90"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D87:G87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7620,10 +7894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H109"/>
+  <dimension ref="A2:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7653,10 +7927,10 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
@@ -7667,10 +7941,10 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -7679,34 +7953,34 @@
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="31" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="32" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -7717,17 +7991,17 @@
       <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -7815,12 +8089,12 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -7892,67 +8166,67 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>741</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>742</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>740</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>743</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -7960,33 +8234,33 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
@@ -7994,49 +8268,61 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="D27" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>183</v>
@@ -8044,10 +8330,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>183</v>
@@ -8055,10 +8341,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>183</v>
@@ -8066,10 +8352,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>183</v>
@@ -8077,10 +8363,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>183</v>
@@ -8088,10 +8374,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>183</v>
@@ -8099,30 +8385,35 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+        <v>287</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D39" s="25" t="s">
         <v>423</v>
@@ -8131,29 +8422,12 @@
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>297</v>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
@@ -8166,68 +8440,68 @@
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>143</v>
@@ -8239,102 +8513,119 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+    </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
+        <v>313</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>43</v>
@@ -8346,68 +8637,63 @@
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="25" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>613</v>
+        <v>325</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>612</v>
+        <v>326</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="D58" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>427</v>
+        <v>613</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>183</v>
@@ -8415,50 +8701,38 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+        <v>428</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+        <v>430</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -8466,16 +8740,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -8483,49 +8757,61 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
     </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>183</v>
@@ -8533,10 +8819,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>183</v>
@@ -8544,10 +8830,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>183</v>
@@ -8555,10 +8841,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>183</v>
@@ -8566,66 +8852,66 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
+        <v>450</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>615</v>
+        <v>451</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+        <v>452</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>183</v>
@@ -8633,10 +8919,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>183</v>
@@ -8644,50 +8930,38 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+        <v>460</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>593</v>
+        <v>461</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+        <v>462</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -8695,16 +8969,16 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -8712,16 +8986,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>595</v>
+        <v>465</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>599</v>
+        <v>466</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -8729,16 +9003,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -8746,16 +9020,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>674</v>
+        <v>595</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>676</v>
+        <v>599</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -8763,49 +9037,61 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>677</v>
+        <v>600</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
     </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+    </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>467</v>
+        <v>675</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>724</v>
+        <v>467</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>183</v>
@@ -8813,10 +9099,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>723</v>
+        <v>469</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>722</v>
+        <v>470</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>183</v>
@@ -8824,10 +9110,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>471</v>
+        <v>724</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>472</v>
+        <v>725</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>183</v>
@@ -8835,112 +9121,100 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>473</v>
+        <v>723</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
+        <v>722</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+    </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="37" t="s">
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="E97" s="37" t="s">
+      <c r="E99" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="F97" s="37" t="s">
+      <c r="F99" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="G97" s="37" t="s">
+      <c r="G99" s="35" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+        <v>478</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -8948,16 +9222,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -8965,27 +9239,33 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
-        <v>609</v>
+        <v>485</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -8993,58 +9273,122 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
-        <v>623</v>
+        <v>487</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>624</v>
+        <v>488</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+    </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>493</v>
+      <c r="A107" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>624</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="66">
     <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:C8"/>
@@ -9056,51 +9400,17 @@
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633255F-3650-47ED-81A6-4A8D8F03F576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027BECA-5398-467D-98DA-428B23949324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="762">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1884,14 +1884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOG_SceneMenu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOG_SceneItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3111,6 +3103,66 @@
   </si>
   <si>
     <t xml:space="preserve">  暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_LayerCommandThread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图 - 多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.94ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.57ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.14ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_GaugeButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图UI - 地图按钮集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.28ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.52ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.29ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义主菜单面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  44.39ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_CoreOfSelectableButton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统 - 按钮组核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3733,10 +3785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H152"/>
+  <dimension ref="A2:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3851,7 +3903,7 @@
       <c r="B12" s="30"/>
       <c r="C12" s="8"/>
       <c r="D12" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -3952,16 +4004,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -3969,16 +4021,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>601</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
@@ -3986,10 +4038,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
@@ -4003,10 +4055,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -4020,16 +4072,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -4037,16 +4089,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -4054,33 +4106,33 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>760</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>761</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -4088,210 +4140,204 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+        <v>179</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D31" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="15" t="s">
+      <c r="C34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G34" s="15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>649</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>183</v>
+        <v>650</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -4299,22 +4345,22 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -4322,22 +4368,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>387</v>
+        <v>711</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>712</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>388</v>
+        <v>713</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -4345,22 +4391,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>157</v>
+      <c r="D40" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -4368,107 +4414,113 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>642</v>
+        <v>747</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>643</v>
+        <v>748</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>640</v>
+      <c r="D41" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>641</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>640</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>641</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>511</v>
+      <c r="D43" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>638</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>183</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>143</v>
@@ -4482,67 +4534,61 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
@@ -4551,7 +4597,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>17</v>
@@ -4560,282 +4606,282 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>581</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>582</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>585</v>
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>650</v>
+      <c r="D56" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>14</v>
@@ -4843,22 +4889,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>629</v>
+        <v>574</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>633</v>
+      <c r="D66" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>631</v>
+        <v>577</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>632</v>
+        <v>390</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>14</v>
@@ -4866,39 +4912,45 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>627</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>628</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>580</v>
+        <v>43</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>631</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>390</v>
+        <v>629</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>390</v>
+        <v>630</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -4906,45 +4958,39 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D69" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>586</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>587</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>589</v>
+        <v>390</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>14</v>
@@ -4952,22 +4998,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>518</v>
+        <v>379</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>519</v>
+        <v>145</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>14</v>
@@ -4975,22 +5021,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>584</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>153</v>
+        <v>585</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>586</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>154</v>
+        <v>587</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>155</v>
+        <v>588</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>14</v>
@@ -4998,67 +5044,73 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>529</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
+      <c r="D73" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>528</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>527</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>43</v>
@@ -5072,22 +5124,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>14</v>
@@ -5095,125 +5147,119 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>534</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>535</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>97</v>
+        <v>532</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>99</v>
+        <v>529</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="G83" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>537</v>
+        <v>97</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>14</v>
@@ -5221,194 +5267,194 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>533</v>
+        <v>99</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F85" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="D85" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>535</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>534</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>552</v>
+        <v>143</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>14</v>
+        <v>545</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>520</v>
+        <v>109</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>521</v>
+        <v>110</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>525</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>562</v>
+        <v>520</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>563</v>
+        <v>521</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>564</v>
+        <v>522</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>14</v>
@@ -5416,78 +5462,102 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>519</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>546</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>116</v>
+        <v>537</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>381</v>
+        <v>560</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>382</v>
+        <v>561</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>383</v>
+        <v>562</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>183</v>
@@ -5495,10 +5565,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>183</v>
@@ -5506,10 +5576,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>183</v>
@@ -5517,10 +5587,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>183</v>
@@ -5528,10 +5598,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>183</v>
@@ -5539,10 +5609,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>183</v>
@@ -5550,54 +5620,66 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>276</v>
+        <v>752</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>213</v>
+        <v>753</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>213</v>
@@ -5605,10 +5687,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>213</v>
@@ -5616,10 +5698,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>213</v>
@@ -5627,10 +5709,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>213</v>
@@ -5638,10 +5720,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>213</v>
@@ -5649,21 +5731,32 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>213</v>
@@ -5671,164 +5764,152 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>739</v>
-      </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>729</v>
-      </c>
       <c r="C122" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>731</v>
-      </c>
+      <c r="D122" s="24" t="s">
+        <v>737</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B126" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="24" t="s">
+      <c r="C126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
     </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+    </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>625</v>
+        <v>300</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>626</v>
+        <v>301</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
@@ -5836,296 +5917,261 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>627</v>
+        <v>302</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>628</v>
+        <v>303</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
     </row>
-    <row r="130" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-    </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>126</v>
+        <v>623</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>127</v>
+        <v>624</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D131" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>625</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>129</v>
+        <v>626</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="D132" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+    </row>
+    <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>213</v>
+        <v>129</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>315</v>
+        <v>655</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>316</v>
+        <v>656</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="F137" s="23" t="s">
-        <v>704</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
+        <v>314</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>663</v>
+        <v>315</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>664</v>
+        <v>316</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>667</v>
+        <v>693</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>707</v>
+      <c r="D142" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>663</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>708</v>
+        <v>664</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>14</v>
+        <v>665</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>668</v>
+        <v>322</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>667</v>
+        <v>324</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>14</v>
@@ -6133,22 +6179,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>682</v>
+        <v>325</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>679</v>
+        <v>327</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>689</v>
+      <c r="D146" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>14</v>
@@ -6156,159 +6202,231 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="G147" s="1" t="s">
+      <c r="F148" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>331</v>
+        <v>677</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D149" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
+      <c r="D149" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>332</v>
+        <v>681</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>333</v>
+        <v>678</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>351</v>
+      <c r="D150" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>349</v>
+        <v>690</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="C155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F155" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D119:G119"/>
+  <mergeCells count="57">
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D141:G141"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D47:G47"/>
     <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D60:G60"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D12:G12"/>
@@ -6317,10 +6435,8 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6331,10 +6447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H116"/>
+  <dimension ref="A2:H117"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6434,7 +6550,7 @@
       <c r="B11" s="30"/>
       <c r="C11" s="18"/>
       <c r="D11" s="27" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -6533,16 +6649,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -6550,16 +6666,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>601</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -6567,10 +6683,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
@@ -6584,10 +6700,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
@@ -6601,16 +6717,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -6618,16 +6734,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -6635,33 +6751,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>760</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>761</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -6669,106 +6785,112 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+        <v>179</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>213</v>
@@ -6776,10 +6898,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>213</v>
@@ -6787,10 +6909,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>213</v>
@@ -6798,21 +6920,21 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>215</v>
+      <c r="A36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>213</v>
@@ -6820,38 +6942,38 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>213</v>
@@ -6859,10 +6981,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>213</v>
@@ -6870,67 +6992,67 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="6" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="G43" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>213</v>
@@ -6938,10 +7060,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>213</v>
@@ -6949,10 +7071,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>213</v>
@@ -6960,10 +7082,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>213</v>
@@ -6971,44 +7093,44 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>309</v>
+        <v>235</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>213</v>
@@ -7016,32 +7138,32 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54" s="1" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>213</v>
@@ -7049,10 +7171,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>213</v>
@@ -7060,10 +7182,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>213</v>
@@ -7071,10 +7193,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>213</v>
@@ -7082,38 +7204,38 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>213</v>
@@ -7121,10 +7243,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>213</v>
@@ -7132,10 +7254,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>213</v>
@@ -7143,10 +7265,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>213</v>
@@ -7154,10 +7276,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>213</v>
@@ -7165,10 +7287,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>213</v>
@@ -7176,10 +7298,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>213</v>
@@ -7187,10 +7309,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>213</v>
@@ -7198,32 +7320,32 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H72" s="1" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>213</v>
@@ -7231,10 +7353,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>213</v>
@@ -7242,10 +7364,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>213</v>
@@ -7253,10 +7375,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>213</v>
@@ -7264,10 +7386,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>213</v>
@@ -7275,10 +7397,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>213</v>
@@ -7286,10 +7408,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>213</v>
@@ -7297,55 +7419,49 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H82" s="1" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>297</v>
-      </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -7353,27 +7469,27 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>726</v>
+        <v>296</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>727</v>
+        <v>297</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="24" t="s">
+        <v>735</v>
+      </c>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
@@ -7387,33 +7503,33 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B88" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="24" t="s">
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -7421,10 +7537,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>143</v>
@@ -7436,12 +7552,12 @@
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
     </row>
-    <row r="90" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>143</v>
@@ -7453,29 +7569,29 @@
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>43</v>
@@ -7489,50 +7605,50 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>125</v>
+        <v>626</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
+      <c r="D94" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
@@ -7540,61 +7656,61 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>657</v>
+        <v>128</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>658</v>
+        <v>129</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>213</v>
-      </c>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+        <v>313</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>699</v>
+        <v>328</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>700</v>
+        <v>329</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>701</v>
+        <v>406</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -7602,16 +7718,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>317</v>
+        <v>697</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>319</v>
+        <v>698</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>414</v>
+        <v>699</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -7619,90 +7735,84 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>663</v>
+        <v>317</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>664</v>
+        <v>319</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>705</v>
+        <v>414</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>213</v>
-      </c>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>693</v>
+        <v>321</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>325</v>
+        <v>691</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>326</v>
+        <v>692</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D107" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>668</v>
+        <v>325</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>669</v>
+        <v>326</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>670</v>
+      <c r="D108" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>671</v>
+        <v>346</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>672</v>
+        <v>347</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>14</v>
@@ -7710,33 +7820,39 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>711</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
+      <c r="D109" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
@@ -7744,132 +7860,150 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>363</v>
-      </c>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>710</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>213</v>
+        <v>336</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>368</v>
+        <v>338</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D109:G109"/>
     <mergeCell ref="D110:G110"/>
     <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D112:G112"/>
     <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D107:G107"/>
     <mergeCell ref="D103:G103"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D102:G102"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D94:G94"/>
     <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
     <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D93:G93"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -7877,13 +8011,13 @@
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D88:G88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7894,10 +8028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H111"/>
+  <dimension ref="A2:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7992,12 +8126,12 @@
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="21"/>
       <c r="D11" s="27" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -8015,16 +8149,16 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -8098,16 +8232,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
@@ -8115,16 +8249,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>601</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -8132,10 +8266,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
@@ -8149,10 +8283,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
@@ -8166,16 +8300,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -8183,16 +8317,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -8200,33 +8334,33 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>760</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>761</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -8234,50 +8368,50 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>423</v>
+        <v>178</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -8285,16 +8419,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -8302,38 +8436,44 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>183</v>
@@ -8341,10 +8481,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>183</v>
@@ -8352,10 +8492,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>183</v>
@@ -8363,10 +8503,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>183</v>
@@ -8374,10 +8514,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>183</v>
@@ -8385,10 +8525,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>183</v>
@@ -8396,10 +8536,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>183</v>
@@ -8407,44 +8547,38 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D40" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
@@ -8456,12 +8590,12 @@
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>297</v>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
@@ -8473,52 +8607,52 @@
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
+      <c r="F45" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>143</v>
@@ -8530,12 +8664,12 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>143</v>
@@ -8547,35 +8681,35 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -8583,13 +8717,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>305</v>
@@ -8598,23 +8732,29 @@
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>183</v>
@@ -8622,44 +8762,38 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="25" t="s">
+      <c r="C56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>43</v>
@@ -8671,40 +8805,46 @@
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>183</v>
@@ -8712,10 +8852,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>183</v>
@@ -8723,33 +8863,27 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+        <v>430</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -8757,10 +8891,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
@@ -8774,16 +8908,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -8791,49 +8925,61 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>443</v>
+        <v>757</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>183</v>
@@ -8841,10 +8987,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>183</v>
@@ -8852,10 +8998,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>183</v>
@@ -8863,10 +9009,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>183</v>
@@ -8874,33 +9020,27 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+        <v>450</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>615</v>
+        <v>451</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>616</v>
+        <v>452</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -8908,21 +9048,27 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>183</v>
@@ -8930,10 +9076,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>183</v>
@@ -8941,10 +9087,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>183</v>
@@ -8952,33 +9098,27 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+        <v>460</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>593</v>
+        <v>461</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>597</v>
+        <v>462</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -8986,16 +9126,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>466</v>
+        <v>595</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -9003,16 +9143,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>594</v>
+        <v>463</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>598</v>
+        <v>464</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -9020,16 +9160,16 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -9037,16 +9177,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -9054,16 +9194,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>674</v>
+        <v>594</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>676</v>
+        <v>598</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -9071,38 +9211,44 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>183</v>
@@ -9110,10 +9256,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>724</v>
+        <v>467</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>725</v>
+        <v>468</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>183</v>
@@ -9121,10 +9267,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>183</v>
@@ -9132,10 +9278,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>471</v>
+        <v>721</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>472</v>
+        <v>720</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>183</v>
@@ -9143,95 +9289,89 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+        <v>470</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H97" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="F99" s="35" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="F100" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="G99" s="35" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>183</v>
+      <c r="G100" s="35" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+        <v>476</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -9239,10 +9379,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>43</v>
@@ -9256,16 +9396,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -9273,60 +9413,66 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>617</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
-        <v>609</v>
+        <v>485</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
+        <v>486</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>624</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H109" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>183</v>
@@ -9334,61 +9480,74 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="68">
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D107:G107"/>
     <mergeCell ref="D85:G85"/>
     <mergeCell ref="D86:G86"/>
     <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D100:G100"/>
     <mergeCell ref="D102:G102"/>
     <mergeCell ref="D103:G103"/>
     <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D105:G105"/>
     <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D44:G44"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D67:G67"/>
     <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D67:G67"/>
     <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D69:G69"/>
     <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D84:G84"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D61:G61"/>
     <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D59:G59"/>
     <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D43:G43"/>
     <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D25:G25"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:C8"/>
@@ -9400,7 +9559,7 @@
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9027BECA-5398-467D-98DA-428B23949324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FBBA1-6035-4E6D-AA3D-5F5D07D06784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="772">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3163,6 +3163,46 @@
   </si>
   <si>
     <t>系统 - 按钮组核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.54ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  37.62ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  38.83ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_EventForPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物体 - 玩家的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_GaugeFloatingNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图UI - 漂浮参数数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.28ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.07ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3400,11 +3440,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3785,10 +3825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H155"/>
+  <dimension ref="A2:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3813,11 +3853,11 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
@@ -3827,11 +3867,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
@@ -3841,11 +3881,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="32" t="s">
         <v>49</v>
       </c>
@@ -3883,18 +3923,18 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
@@ -3944,12 +3984,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -3961,12 +4001,12 @@
       <c r="C15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3978,12 +4018,12 @@
       <c r="C16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -3995,12 +4035,12 @@
       <c r="C17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -4012,12 +4052,12 @@
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -4029,12 +4069,12 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -4046,12 +4086,12 @@
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -4063,12 +4103,12 @@
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -4097,12 +4137,12 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -4114,12 +4154,12 @@
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -4131,12 +4171,12 @@
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -4148,12 +4188,12 @@
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -4165,12 +4205,12 @@
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -4182,12 +4222,12 @@
       <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -4199,12 +4239,12 @@
       <c r="C29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -4216,12 +4256,12 @@
       <c r="C30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -4233,12 +4273,12 @@
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -4525,12 +4565,12 @@
       <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -4565,12 +4605,12 @@
       <c r="C49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
@@ -4777,12 +4817,12 @@
       <c r="C60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -4840,12 +4880,12 @@
       <c r="C63" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
@@ -4857,12 +4897,12 @@
       <c r="C64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -4966,12 +5006,12 @@
       <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
@@ -5098,12 +5138,12 @@
       <c r="C75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
@@ -5115,12 +5155,12 @@
       <c r="C76" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
@@ -5155,12 +5195,12 @@
       <c r="C78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
@@ -5187,79 +5227,73 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D81" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>532</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>559</v>
+        <v>120</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>14</v>
@@ -5267,68 +5301,68 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="G85" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>534</v>
+        <v>99</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G86" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>14</v>
@@ -5336,68 +5370,68 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D89" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F89" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="G88" s="15" t="s">
+      <c r="G89" s="15" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>136</v>
+      <c r="D91" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>138</v>
+        <v>386</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>14</v>
@@ -5405,125 +5439,125 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>518</v>
+        <v>110</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>523</v>
+        <v>43</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>537</v>
+        <v>112</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>546</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>114</v>
+        <v>537</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>117</v>
+        <v>560</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>118</v>
+        <v>561</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>119</v>
+        <v>562</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>14</v>
@@ -5531,44 +5565,56 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>381</v>
+        <v>117</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>183</v>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>183</v>
@@ -5576,10 +5622,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>183</v>
@@ -5587,10 +5633,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>183</v>
@@ -5598,10 +5644,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>183</v>
@@ -5609,10 +5655,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>183</v>
@@ -5620,10 +5666,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>183</v>
@@ -5631,10 +5677,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>183</v>
@@ -5642,10 +5688,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>183</v>
@@ -5653,55 +5699,67 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>274</v>
+        <v>767</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>213</v>
+        <v>768</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>213</v>
@@ -5709,10 +5767,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>213</v>
@@ -5720,10 +5778,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>213</v>
@@ -5731,10 +5789,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
@@ -5742,10 +5800,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>213</v>
@@ -5753,10 +5811,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>213</v>
@@ -5764,220 +5822,208 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D122" s="24" t="s">
+      <c r="C124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="16" t="s">
-        <v>724</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
-        <v>726</v>
+        <v>296</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>727</v>
+        <v>297</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="D125" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B128" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="C128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D129" s="24" t="s">
+      <c r="D129" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D131" s="24" t="s">
+      <c r="C133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-    </row>
-    <row r="133" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D133" s="25" t="s">
-        <v>307</v>
       </c>
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
@@ -5985,448 +6031,479 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>625</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>127</v>
+        <v>626</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D134" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+    </row>
+    <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D135" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>655</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>656</v>
+        <v>127</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>657</v>
+        <v>130</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>658</v>
+        <v>131</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>659</v>
+        <v>132</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>660</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>312</v>
+        <v>655</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
+        <v>656</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>697</v>
+        <v>312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>14</v>
+        <v>314</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
+        <v>693</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>664</v>
+      <c r="D142" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>702</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>665</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="1" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D146" s="6" t="s">
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E148" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>687</v>
+      <c r="D149" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>670</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="25" t="s">
+      <c r="C154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D153" s="6" t="s">
+      <c r="C155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D92:G92"/>
+  <mergeCells count="58">
+    <mergeCell ref="D83:G83"/>
     <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D16:G16"/>
     <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D152:G152"/>
+    <mergeCell ref="D154:G154"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
     <mergeCell ref="D141:G141"/>
     <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D130:G130"/>
     <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D127:G127"/>
     <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D81:G81"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D75:G75"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D80:G80"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D12:G12"/>
@@ -6435,8 +6512,12 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6450,7 +6531,7 @@
   <dimension ref="A2:H117"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6475,11 +6556,11 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
@@ -6489,11 +6570,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
@@ -6503,9 +6584,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
@@ -6539,9 +6620,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
@@ -6589,12 +6670,12 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -6606,12 +6687,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -6623,12 +6704,12 @@
       <c r="C15" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6657,12 +6738,12 @@
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -6674,12 +6755,12 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -6691,12 +6772,12 @@
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -6708,12 +6789,12 @@
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -6742,12 +6823,12 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>744</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -6759,12 +6840,12 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -6776,12 +6857,12 @@
       <c r="C24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -6793,12 +6874,12 @@
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -6810,12 +6891,12 @@
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -6827,12 +6908,12 @@
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -6844,12 +6925,12 @@
       <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -6861,12 +6942,12 @@
       <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -6878,12 +6959,12 @@
       <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -7223,12 +7304,12 @@
       <c r="C60" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
@@ -7460,12 +7541,12 @@
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
@@ -7477,12 +7558,12 @@
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
@@ -7494,12 +7575,12 @@
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
@@ -7511,12 +7592,12 @@
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="D87" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
@@ -7528,12 +7609,12 @@
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -7545,12 +7626,12 @@
       <c r="C89" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -7562,12 +7643,12 @@
       <c r="C90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
@@ -7579,12 +7660,12 @@
       <c r="C91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
@@ -7596,12 +7677,12 @@
       <c r="C93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
@@ -7613,12 +7694,12 @@
       <c r="C94" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
@@ -7647,12 +7728,12 @@
       <c r="C96" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
@@ -7664,12 +7745,12 @@
       <c r="C97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -7681,12 +7762,12 @@
       <c r="C98" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
@@ -7709,12 +7790,12 @@
       <c r="C101" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D101" s="24" t="s">
+      <c r="D101" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
@@ -7726,12 +7807,12 @@
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
@@ -7743,12 +7824,12 @@
       <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -7760,12 +7841,12 @@
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
@@ -7788,12 +7869,12 @@
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
@@ -7851,12 +7932,12 @@
       <c r="C110" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D110" s="24" t="s">
+      <c r="D110" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
@@ -7868,12 +7949,12 @@
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
@@ -7885,12 +7966,12 @@
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
@@ -7962,48 +8043,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D97:G97"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D110:G110"/>
     <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D97:G97"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D89:G89"/>
     <mergeCell ref="D90:G90"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D103:G103"/>
     <mergeCell ref="D28:G28"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
     <mergeCell ref="D85:G85"/>
     <mergeCell ref="D84:G84"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D93:G93"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -8014,10 +8093,12 @@
     <mergeCell ref="D94:G94"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D96:G96"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="D91:G91"/>
     <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D38:G38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8030,8 +8111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8056,11 +8137,11 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
@@ -8070,11 +8151,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
@@ -8084,9 +8165,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
@@ -8120,9 +8201,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
@@ -8172,12 +8253,12 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -8189,12 +8270,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -8206,12 +8287,12 @@
       <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -8240,12 +8321,12 @@
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -8257,12 +8338,12 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
@@ -8274,12 +8355,12 @@
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
@@ -8291,12 +8372,12 @@
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -8308,12 +8389,12 @@
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -8325,12 +8406,12 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -8342,12 +8423,12 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="D23" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -8359,12 +8440,12 @@
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -8376,12 +8457,12 @@
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -8393,12 +8474,12 @@
       <c r="C26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -8410,12 +8491,12 @@
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -8427,12 +8508,12 @@
       <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -8444,12 +8525,12 @@
       <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
@@ -8461,12 +8542,12 @@
       <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -8566,12 +8647,12 @@
       <c r="C40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -8583,12 +8664,12 @@
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -8600,12 +8681,12 @@
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
@@ -8617,12 +8698,12 @@
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
@@ -8657,12 +8738,12 @@
       <c r="C46" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -8674,12 +8755,12 @@
       <c r="C47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
@@ -8691,12 +8772,12 @@
       <c r="C48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
@@ -8708,12 +8789,12 @@
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -8725,12 +8806,12 @@
       <c r="C51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
@@ -8742,12 +8823,12 @@
       <c r="C52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
@@ -8781,12 +8862,12 @@
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
@@ -8798,12 +8879,12 @@
       <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -8815,12 +8896,12 @@
       <c r="C59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
@@ -8832,12 +8913,12 @@
       <c r="C61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
@@ -8882,12 +8963,12 @@
       <c r="C65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
@@ -8899,12 +8980,12 @@
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
@@ -8916,12 +8997,12 @@
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
@@ -8933,12 +9014,12 @@
       <c r="C68" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
@@ -8950,12 +9031,12 @@
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
@@ -9039,12 +9120,12 @@
       <c r="C77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
@@ -9056,12 +9137,12 @@
       <c r="C78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
@@ -9117,12 +9198,12 @@
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
@@ -9134,12 +9215,12 @@
       <c r="C84" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
@@ -9151,12 +9232,12 @@
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
@@ -9168,12 +9249,12 @@
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -9185,12 +9266,12 @@
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
@@ -9202,12 +9283,12 @@
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -9219,12 +9300,12 @@
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="24" t="s">
+      <c r="D89" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
@@ -9236,12 +9317,12 @@
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
@@ -9308,12 +9389,12 @@
       <c r="C97" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D97" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
@@ -9370,12 +9451,12 @@
       <c r="C102" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D102" s="24" t="s">
+      <c r="D102" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
@@ -9387,12 +9468,12 @@
       <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
@@ -9404,12 +9485,12 @@
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
@@ -9421,12 +9502,12 @@
       <c r="C105" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
@@ -9449,12 +9530,12 @@
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="24" t="s">
+      <c r="D107" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
@@ -9502,7 +9583,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="D71:G71"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D21:G21"/>
@@ -9532,19 +9612,20 @@
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D77:G77"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D77:G77"/>
     <mergeCell ref="D78:G78"/>
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="D58:G58"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D71:G71"/>
     <mergeCell ref="D83:G83"/>
     <mergeCell ref="D65:G65"/>
     <mergeCell ref="D25:G25"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813FBBA1-6035-4E6D-AA3D-5F5D07D06784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3CC0E-7E79-4DA9-818E-F1E30981D8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地图界面" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="792">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3203,6 +3203,86 @@
   </si>
   <si>
     <t>9.07ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_RmmvCoreFix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统 - rmmv核心修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureAdsorptionSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 图片吸附槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.20ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.42ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.37ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.20ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_MouseDragPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_MouseTriggerPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标 - 鼠标触发图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.31ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.58ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标 - 可拖拽的图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.15ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.46ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.08ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.15ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.46ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3446,6 +3526,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3461,25 +3553,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3825,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H157"/>
+  <dimension ref="A2:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3858,10 +3938,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11" t="s">
         <v>56</v>
       </c>
@@ -3872,10 +3952,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -3886,38 +3966,38 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -3937,17 +4017,17 @@
       <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -4120,12 +4200,12 @@
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="26" t="s">
         <v>743</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -4280,127 +4360,121 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="22" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B35" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C35" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F35" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>649</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>183</v>
+        <v>650</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -4408,22 +4482,22 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -4431,22 +4505,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>387</v>
+        <v>711</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>712</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>388</v>
+        <v>713</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -4454,22 +4528,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>747</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>748</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>751</v>
+        <v>387</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>750</v>
+        <v>146</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>749</v>
+        <v>388</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -4477,22 +4551,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>747</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>748</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>157</v>
+      <c r="D42" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -4500,158 +4574,158 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>183</v>
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>43</v>
@@ -4671,10 +4745,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>43</v>
@@ -4683,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>17</v>
@@ -4694,22 +4768,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>9</v>
+        <v>123</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
@@ -4717,22 +4791,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>14</v>
@@ -4740,22 +4814,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>579</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>583</v>
+      <c r="D56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>14</v>
@@ -4763,22 +4837,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>579</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>580</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>147</v>
+      <c r="D57" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>14</v>
@@ -4786,85 +4860,85 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>644</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>645</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>646</v>
+        <v>148</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>647</v>
+        <v>149</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>648</v>
+        <v>147</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>570</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>571</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>572</v>
+        <v>141</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>573</v>
+        <v>142</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>14</v>
@@ -4872,33 +4946,39 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>694</v>
+        <v>569</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>695</v>
+        <v>570</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>694</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>695</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>696</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -4906,42 +4986,36 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>574</v>
+        <v>76</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>575</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>576</v>
+        <v>396</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>577</v>
+        <v>397</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>390</v>
@@ -4952,22 +5026,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>574</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>395</v>
+        <v>576</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>389</v>
+        <v>577</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>14</v>
@@ -4975,22 +5049,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>627</v>
+        <v>78</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>628</v>
+        <v>79</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>631</v>
+        <v>180</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>629</v>
+        <v>389</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>630</v>
+        <v>391</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -4998,62 +5072,62 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>81</v>
+        <v>628</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D70" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>379</v>
+        <v>578</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>14</v>
@@ -5061,22 +5135,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>585</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>586</v>
+        <v>379</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>587</v>
+        <v>145</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>588</v>
+        <v>380</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>14</v>
@@ -5084,22 +5158,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>584</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>585</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>517</v>
+        <v>587</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>390</v>
+        <v>588</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>14</v>
@@ -5107,22 +5181,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>156</v>
+      <c r="D74" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>154</v>
+        <v>517</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>14</v>
@@ -5130,30 +5204,36 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>528</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>527</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>528</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>85</v>
+        <v>527</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>406</v>
@@ -5164,159 +5244,153 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D77" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>378</v>
+        <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>765</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>766</v>
+        <v>94</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>765</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>766</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>103</v>
+        <v>532</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>559</v>
+        <v>120</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>14</v>
@@ -5324,68 +5398,68 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="G86" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>535</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>534</v>
+        <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G87" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G87" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>14</v>
@@ -5393,68 +5467,68 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D90" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E90" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F90" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G90" s="15" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>136</v>
+      <c r="D92" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>138</v>
+        <v>386</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>14</v>
@@ -5462,27 +5536,33 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>143</v>
@@ -5496,91 +5576,85 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>518</v>
+        <v>110</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>523</v>
+        <v>43</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>537</v>
+        <v>112</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>546</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>114</v>
+        <v>537</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>117</v>
+        <v>560</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>118</v>
+        <v>561</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>119</v>
+        <v>562</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>14</v>
@@ -5588,44 +5662,56 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>381</v>
+        <v>117</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>382</v>
+        <v>118</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>183</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>183</v>
@@ -5633,10 +5719,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>183</v>
@@ -5644,10 +5730,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>183</v>
@@ -5655,10 +5741,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>183</v>
@@ -5666,10 +5752,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>183</v>
@@ -5677,10 +5763,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>183</v>
@@ -5688,10 +5774,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>183</v>
@@ -5699,10 +5785,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>183</v>
@@ -5710,67 +5796,67 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>752</v>
+        <v>200</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>213</v>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>213</v>
@@ -5778,10 +5864,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>213</v>
@@ -5789,10 +5875,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
@@ -5800,10 +5886,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>213</v>
@@ -5811,10 +5897,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>213</v>
@@ -5822,10 +5908,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>213</v>
@@ -5833,10 +5919,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>213</v>
@@ -5844,101 +5930,89 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H123" s="1" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D124" s="25" t="s">
+      <c r="C125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="E124" s="25"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
-        <v>724</v>
+        <v>296</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>725</v>
+        <v>297</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>729</v>
-      </c>
+      <c r="D126" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>733</v>
+      <c r="D127" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>729</v>
@@ -5946,33 +6020,39 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B129" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D128" s="25" t="s">
+      <c r="C129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="25" t="s">
         <v>413</v>
-      </c>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
@@ -5980,10 +6060,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>143</v>
@@ -5997,10 +6077,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>143</v>
@@ -6012,29 +6092,29 @@
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D133" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E133" s="25"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="25"/>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>43</v>
@@ -6046,64 +6126,58 @@
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
     </row>
-    <row r="135" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="24" t="s">
+      <c r="C136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>14</v>
@@ -6111,216 +6185,216 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>655</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>656</v>
+        <v>129</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>657</v>
+        <v>133</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>658</v>
+        <v>134</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>659</v>
+        <v>135</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>660</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>213</v>
+        <v>786</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>315</v>
+        <v>655</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>316</v>
+        <v>656</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D141" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>700</v>
-      </c>
-      <c r="E142" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
+        <v>314</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>661</v>
+        <v>315</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>662</v>
+        <v>316</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>665</v>
+        <v>693</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="E145" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>705</v>
+      <c r="D147" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>663</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>14</v>
+        <v>665</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>666</v>
+        <v>322</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>665</v>
+        <v>324</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>14</v>
@@ -6328,22 +6402,22 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>680</v>
+        <v>325</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>677</v>
+        <v>327</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>687</v>
+      <c r="D151" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>14</v>
@@ -6351,62 +6425,91 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>690</v>
+      <c r="D152" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>670</v>
       </c>
       <c r="G152" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>331</v>
+        <v>677</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
+      <c r="D154" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>681</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>333</v>
+        <v>678</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>351</v>
+      <c r="D155" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>689</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>349</v>
+        <v>690</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>14</v>
@@ -6414,96 +6517,117 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D156" s="7" t="s">
+      <c r="C160" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="6" t="s">
+      <c r="C161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F161" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
+  <mergeCells count="59">
+    <mergeCell ref="D14:G14"/>
     <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D80:G80"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D12:G12"/>
@@ -6512,12 +6636,55 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6528,10 +6695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H117"/>
+  <dimension ref="A2:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6561,10 +6728,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6575,10 +6742,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -6587,34 +6754,34 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -6625,17 +6792,17 @@
       <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6721,14 +6888,14 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>603</v>
       </c>
@@ -6745,7 +6912,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>599</v>
       </c>
@@ -6762,7 +6929,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>632</v>
       </c>
@@ -6779,7 +6946,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>634</v>
       </c>
@@ -6796,7 +6963,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>739</v>
       </c>
@@ -6806,14 +6973,14 @@
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>738</v>
       </c>
@@ -6830,7 +6997,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>760</v>
       </c>
@@ -6847,7 +7014,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -6864,7 +7031,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>173</v>
       </c>
@@ -6881,7 +7048,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -6898,7 +7065,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6915,7 +7082,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -6932,7 +7099,7 @@
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>177</v>
       </c>
@@ -6949,7 +7116,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -6966,23 +7133,29 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>213</v>
-      </c>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>213</v>
@@ -6990,10 +7163,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>213</v>
@@ -7001,10 +7174,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>213</v>
@@ -7012,21 +7185,21 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>215</v>
+      <c r="A37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>213</v>
@@ -7034,38 +7207,38 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>213</v>
@@ -7073,10 +7246,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>213</v>
@@ -7084,67 +7257,67 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>213</v>
@@ -7152,10 +7325,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>213</v>
@@ -7163,10 +7336,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>213</v>
@@ -7174,10 +7347,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>213</v>
@@ -7185,44 +7358,44 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>309</v>
+        <v>235</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>213</v>
@@ -7230,32 +7403,32 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H55" s="1" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>213</v>
@@ -7263,10 +7436,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>213</v>
@@ -7274,10 +7447,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>213</v>
@@ -7285,10 +7458,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>213</v>
@@ -7296,38 +7469,38 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D61" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>213</v>
@@ -7335,10 +7508,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>213</v>
@@ -7346,10 +7519,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>213</v>
@@ -7357,10 +7530,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>213</v>
@@ -7368,10 +7541,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>213</v>
@@ -7379,10 +7552,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>213</v>
@@ -7390,10 +7563,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>213</v>
@@ -7401,10 +7574,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>213</v>
@@ -7412,32 +7585,32 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H73" s="1" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>213</v>
@@ -7445,10 +7618,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>213</v>
@@ -7456,10 +7629,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>213</v>
@@ -7467,10 +7640,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>213</v>
@@ -7478,10 +7651,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>213</v>
@@ -7489,10 +7662,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>213</v>
@@ -7500,10 +7673,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>213</v>
@@ -7511,55 +7684,49 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" s="1" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="25" t="s">
+      <c r="C85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D85" s="25" t="s">
         <v>736</v>
-      </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>735</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
@@ -7567,27 +7734,27 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>724</v>
+        <v>296</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>725</v>
+        <v>297</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
+      <c r="D86" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
@@ -7601,33 +7768,33 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B89" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="25" t="s">
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="25" t="s">
         <v>415</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>408</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
@@ -7635,10 +7802,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>143</v>
@@ -7650,12 +7817,12 @@
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
     </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>143</v>
@@ -7667,29 +7834,29 @@
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
+    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>43</v>
@@ -7703,50 +7870,50 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>626</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
+      <c r="D95" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -7754,186 +7921,174 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>655</v>
+        <v>128</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>656</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
     </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+    </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>312</v>
+        <v>780</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>786</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>328</v>
+        <v>655</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>329</v>
+        <v>656</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>699</v>
-      </c>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+        <v>313</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>661</v>
+        <v>328</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>662</v>
+        <v>329</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>43</v>
+        <v>693</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>703</v>
+        <v>406</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
     </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+    </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>666</v>
+        <v>321</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>14</v>
+        <v>323</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
@@ -7941,164 +8096,248 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>680</v>
+        <v>325</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>677</v>
+        <v>326</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D111" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="E111" s="25"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
+      <c r="D111" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="25" t="s">
-        <v>710</v>
-      </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+      <c r="D112" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>335</v>
+        <v>680</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>336</v>
+        <v>677</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>363</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>337</v>
+        <v>681</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D112:G112"/>
+  <mergeCells count="60">
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D94:G94"/>
     <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="D95:G95"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D107:G107"/>
     <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D96:G96"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D38:G38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8109,10 +8348,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H112"/>
+  <dimension ref="A2:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:G22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8142,10 +8381,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
@@ -8156,10 +8395,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -8168,34 +8407,34 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -8206,17 +8445,17 @@
       <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -8304,14 +8543,14 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>603</v>
       </c>
@@ -8328,7 +8567,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>599</v>
       </c>
@@ -8345,7 +8584,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>632</v>
       </c>
@@ -8362,7 +8601,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>634</v>
       </c>
@@ -8379,7 +8618,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>739</v>
       </c>
@@ -8396,7 +8635,7 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>738</v>
       </c>
@@ -8413,7 +8652,7 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>760</v>
       </c>
@@ -8430,7 +8669,7 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -8447,7 +8686,7 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>173</v>
       </c>
@@ -8464,7 +8703,7 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -8481,7 +8720,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>165</v>
       </c>
@@ -8498,7 +8737,7 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -8515,7 +8754,7 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>177</v>
       </c>
@@ -8532,7 +8771,7 @@
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>169</v>
       </c>
@@ -8549,23 +8788,29 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>183</v>
@@ -8573,10 +8818,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>183</v>
@@ -8584,10 +8829,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>183</v>
@@ -8595,10 +8840,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>183</v>
@@ -8606,10 +8851,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>183</v>
@@ -8617,10 +8862,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>183</v>
@@ -8628,10 +8873,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>183</v>
@@ -8639,44 +8884,38 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
@@ -8688,12 +8927,12 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>297</v>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
@@ -8705,52 +8944,52 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>143</v>
@@ -8762,12 +9001,12 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>143</v>
@@ -8779,35 +9018,35 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -8815,13 +9054,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>305</v>
@@ -8830,23 +9069,29 @@
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>183</v>
@@ -8854,44 +9099,38 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>43</v>
@@ -8903,40 +9142,46 @@
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>183</v>
@@ -8944,10 +9189,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>183</v>
@@ -8955,33 +9200,27 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+        <v>430</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -8989,16 +9228,16 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
@@ -9006,16 +9245,16 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
@@ -9023,55 +9262,61 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>759</v>
-      </c>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>441</v>
+        <v>757</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>183</v>
@@ -9079,10 +9324,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>183</v>
@@ -9090,10 +9335,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>183</v>
@@ -9101,10 +9346,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>183</v>
@@ -9112,33 +9357,27 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+        <v>450</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>613</v>
+        <v>451</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>614</v>
+        <v>452</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
@@ -9146,21 +9385,27 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>453</v>
+        <v>613</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>183</v>
@@ -9168,10 +9413,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>183</v>
@@ -9179,10 +9424,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>183</v>
@@ -9190,27 +9435,21 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>591</v>
+        <v>461</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>595</v>
+        <v>462</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
@@ -9224,16 +9463,16 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>463</v>
+        <v>591</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>464</v>
+        <v>595</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
@@ -9241,10 +9480,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>592</v>
+        <v>463</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>596</v>
+        <v>464</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>43</v>
@@ -9258,16 +9497,16 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
@@ -9275,10 +9514,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
@@ -9292,16 +9531,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>672</v>
+        <v>594</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>674</v>
+        <v>598</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
@@ -9309,10 +9548,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>43</v>
@@ -9324,23 +9563,29 @@
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>183</v>
@@ -9348,10 +9593,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>722</v>
+        <v>467</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>723</v>
+        <v>468</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>183</v>
@@ -9359,10 +9604,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>183</v>
@@ -9370,10 +9615,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>469</v>
+        <v>721</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>470</v>
+        <v>720</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>183</v>
@@ -9381,95 +9626,89 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
+        <v>470</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="35" t="s">
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E101" s="37" t="s">
         <v>505</v>
       </c>
-      <c r="F100" s="35" t="s">
+      <c r="F101" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G100" s="35" t="s">
+      <c r="G101" s="37" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
+        <v>476</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
@@ -9477,16 +9716,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
@@ -9494,16 +9733,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -9511,60 +9750,66 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
-        <v>607</v>
+        <v>485</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B109" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H110" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>183</v>
@@ -9572,62 +9817,36 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D65:G65"/>
+  <mergeCells count="69">
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
@@ -9644,13 +9863,51 @@
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3CC0E-7E79-4DA9-818E-F1E30981D8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE761E66-D363-46C1-A6C7-6D106DAB0FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地图界面" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="795">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1964,22 +1964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drill_SceneSelfplateA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drill_SceneSelfplateC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drill_RotateCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2482,38 +2466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drill_SceneSelfplateB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drill_SceneSelfplateD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drill_SceneSelfplateE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drill_SceneSelfplateF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drill_CoreOfScreenRoller</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2806,22 +2758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Drill_SceneSelfplateG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drill_SceneSelfplateH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面板 - 全自定义信息面板H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片 - 显现动作效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3283,6 +3219,82 @@
   </si>
   <si>
     <t xml:space="preserve">  21.46ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateA、B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateI、J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateC、D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板C、D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板A、B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateE、F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板E、F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateG、H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板G、H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板I、J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_SceneSelfplateK、L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面板 - 全自定义信息面板K、L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.41ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  14.89ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_DialogTextBigImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框 - 大图片字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_DialogTextAlign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框 - 文本居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  12.06ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3526,18 +3538,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3553,13 +3553,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3905,10 +3917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H161"/>
+  <dimension ref="A2:H163"/>
   <sheetViews>
     <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="C143" sqref="C143:G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3938,10 +3950,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11" t="s">
         <v>56</v>
       </c>
@@ -3952,10 +3964,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -3966,38 +3978,38 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -4017,17 +4029,17 @@
       <c r="C10" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="D12" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -4124,16 +4136,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -4141,16 +4153,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -4158,10 +4170,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
@@ -4175,10 +4187,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -4192,33 +4204,33 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -4226,16 +4238,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -4362,10 +4374,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
@@ -4425,25 +4437,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -4468,13 +4480,13 @@
         <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -4491,13 +4503,13 @@
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -4514,13 +4526,13 @@
         <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -4551,22 +4563,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -4597,25 +4609,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -4629,13 +4641,13 @@
         <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
@@ -4837,22 +4849,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>14</v>
@@ -4883,22 +4895,22 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>14</v>
@@ -4906,10 +4918,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>143</v>
@@ -4923,7 +4935,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>139</v>
@@ -4946,22 +4958,22 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>14</v>
@@ -4969,13 +4981,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>406</v>
@@ -5026,19 +5038,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>390</v>
@@ -5072,22 +5084,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
@@ -5121,7 +5133,7 @@
         <v>143</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>390</v>
@@ -5158,22 +5170,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>14</v>
@@ -5190,10 +5202,10 @@
         <v>143</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>390</v>
@@ -5227,10 +5239,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>143</v>
@@ -5270,13 +5282,13 @@
         <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>14</v>
@@ -5310,13 +5322,13 @@
         <v>143</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>14</v>
@@ -5324,10 +5336,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>43</v>
@@ -5358,10 +5370,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>43</v>
@@ -5378,10 +5390,10 @@
         <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>121</v>
@@ -5401,19 +5413,19 @@
         <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>14</v>
@@ -5427,16 +5439,16 @@
         <v>99</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>14</v>
@@ -5444,22 +5456,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>14</v>
@@ -5470,19 +5482,19 @@
         <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>14</v>
@@ -5496,19 +5508,19 @@
         <v>102</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F90" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D90" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>549</v>
-      </c>
       <c r="G90" s="15" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -5596,19 +5608,19 @@
         <v>112</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>14</v>
@@ -5619,42 +5631,42 @@
         <v>112</v>
       </c>
       <c r="B97" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="G97" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>14</v>
@@ -5807,22 +5819,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>14</v>
@@ -5830,22 +5842,22 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>14</v>
@@ -5972,7 +5984,7 @@
         <v>43</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
@@ -5997,51 +6009,51 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
         <v>405</v>
       </c>
@@ -6058,7 +6070,7 @@
       <c r="F129" s="25"/>
       <c r="G129" s="25"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>298</v>
       </c>
@@ -6075,7 +6087,7 @@
       <c r="F130" s="25"/>
       <c r="G130" s="25"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>300</v>
       </c>
@@ -6092,7 +6104,7 @@
       <c r="F131" s="25"/>
       <c r="G131" s="25"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>302</v>
       </c>
@@ -6109,12 +6121,12 @@
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>43</v>
@@ -6126,12 +6138,12 @@
       <c r="F134" s="25"/>
       <c r="G134" s="25"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>43</v>
@@ -6143,7 +6155,7 @@
       <c r="F135" s="25"/>
       <c r="G135" s="25"/>
     </row>
-    <row r="136" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>124</v>
       </c>
@@ -6160,7 +6172,7 @@
       <c r="F136" s="24"/>
       <c r="G136" s="24"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>126</v>
       </c>
@@ -6183,7 +6195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>128</v>
       </c>
@@ -6206,87 +6218,93 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>315</v>
       </c>
@@ -6294,7 +6312,7 @@
         <v>316</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D144" s="25" t="s">
         <v>406</v>
@@ -6305,22 +6323,22 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="E145" s="23" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>14</v>
@@ -6328,16 +6346,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>318</v>
+        <v>792</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>320</v>
+        <v>793</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
@@ -6345,125 +6363,113 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>661</v>
+        <v>790</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>662</v>
+        <v>791</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>665</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>649</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>14</v>
+        <v>650</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>14</v>
+        <v>324</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>670</v>
+      <c r="D152" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>665</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>679</v>
+        <v>325</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>676</v>
+        <v>327</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>684</v>
+      <c r="D153" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>14</v>
@@ -6471,45 +6477,45 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>687</v>
+      <c r="D154" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>14</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>14</v>
@@ -6517,115 +6523,207 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>774</v>
+        <v>664</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>775</v>
+        <v>661</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>778</v>
+        <v>669</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>777</v>
+        <v>670</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>776</v>
+        <v>671</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>330</v>
+        <v>758</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>331</v>
+        <v>759</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D158" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E158" s="24"/>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G159" s="1" t="s">
+      <c r="D158" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>510</v>
+        <v>330</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>511</v>
+        <v>331</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D160" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>512</v>
-      </c>
+      <c r="D160" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>371</v>
+        <v>351</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="62">
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D147:G147"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D81:G81"/>
     <mergeCell ref="A7:C7"/>
@@ -6642,49 +6740,6 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6695,10 +6750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H121"/>
+  <dimension ref="A2:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D103" sqref="C103:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6728,10 +6783,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
@@ -6742,10 +6797,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -6754,34 +6809,34 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -6792,17 +6847,17 @@
       <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="31" t="s">
-        <v>589</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6888,25 +6943,25 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -6914,16 +6969,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -6931,10 +6986,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
@@ -6948,10 +7003,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
@@ -6965,33 +7020,33 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>745</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -6999,16 +7054,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -7135,10 +7190,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>43</v>
@@ -7226,12 +7281,12 @@
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
@@ -7291,25 +7346,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -7726,7 +7781,7 @@
         <v>43</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
@@ -7743,7 +7798,7 @@
         <v>43</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
@@ -7751,10 +7806,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
@@ -7768,10 +7823,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
@@ -7853,10 +7908,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>43</v>
@@ -7870,10 +7925,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>43</v>
@@ -7895,12 +7950,12 @@
       <c r="C96" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
@@ -7938,16 +7993,16 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
@@ -7955,16 +8010,16 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
@@ -7972,10 +8027,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
@@ -7994,9 +8049,15 @@
       <c r="B103" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="C103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
@@ -8006,7 +8067,7 @@
         <v>329</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="D104" s="25" t="s">
         <v>406</v>
@@ -8017,16 +8078,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -8034,16 +8095,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>317</v>
+        <v>792</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>319</v>
+        <v>793</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -8051,141 +8112,141 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>661</v>
+        <v>790</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>662</v>
+        <v>791</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>703</v>
+        <v>406</v>
       </c>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
     </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+    </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>321</v>
+        <v>649</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+        <v>650</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>14</v>
+        <v>323</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D112" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>679</v>
+        <v>325</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>676</v>
+        <v>326</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D113" s="25" t="s">
-        <v>709</v>
-      </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
+      <c r="D113" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="E114" s="25"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="25"/>
+      <c r="D114" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
@@ -8193,92 +8254,173 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>774</v>
+        <v>664</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>775</v>
+        <v>661</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>779</v>
+        <v>692</v>
       </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
     </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+    </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>335</v>
+        <v>758</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>336</v>
+        <v>759</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="63">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D115:G115"/>
     <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D118:G118"/>
     <mergeCell ref="D99:G99"/>
     <mergeCell ref="D100:G100"/>
     <mergeCell ref="D17:G17"/>
@@ -8290,54 +8432,10 @@
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
     <mergeCell ref="D101:G101"/>
     <mergeCell ref="D94:G94"/>
     <mergeCell ref="D97:G97"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D112:G112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8348,10 +8446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H113"/>
+  <dimension ref="A2:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8381,10 +8479,10 @@
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
@@ -8395,10 +8493,10 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
@@ -8407,34 +8505,34 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="32" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="33" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
@@ -8445,17 +8543,17 @@
       <c r="C9" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="B11" s="34"/>
+      <c r="A11" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="31" t="s">
-        <v>590</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -8469,16 +8567,16 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -8543,25 +8641,25 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -8569,16 +8667,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -8586,10 +8684,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
@@ -8603,10 +8701,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
@@ -8620,16 +8718,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -8637,16 +8735,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -8654,16 +8752,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -8790,10 +8888,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>43</v>
@@ -8972,16 +9070,16 @@
         <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -9018,7 +9116,7 @@
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>302</v>
       </c>
@@ -9035,7 +9133,7 @@
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
@@ -9052,7 +9150,7 @@
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>126</v>
       </c>
@@ -9069,7 +9167,7 @@
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>128</v>
       </c>
@@ -9086,34 +9184,46 @@
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>317</v>
+        <v>681</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>319</v>
+        <v>682</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>43</v>
@@ -9125,29 +9235,46 @@
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>321</v>
+        <v>790</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>323</v>
+        <v>791</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>43</v>
@@ -9159,68 +9286,69 @@
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>427</v>
+        <v>325</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>431</v>
+        <v>599</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>432</v>
+        <v>598</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>619</v>
+        <v>406</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
@@ -9228,139 +9356,145 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
+        <v>426</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>616</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
+        <v>428</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
+        <v>430</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
     </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+    </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>757</v>
+        <v>435</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>758</v>
+        <v>436</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>759</v>
-      </c>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="D72" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>447</v>
+        <v>741</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>183</v>
@@ -9368,44 +9502,32 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>612</v>
-      </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+        <v>444</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>613</v>
+        <v>445</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+        <v>446</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>183</v>
@@ -9413,10 +9535,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>183</v>
@@ -9424,106 +9546,94 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
+        <v>454</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>591</v>
+        <v>455</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
+        <v>456</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
+        <v>458</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>592</v>
+        <v>459</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>593</v>
+        <v>776</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>597</v>
+        <v>780</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
@@ -9531,16 +9641,16 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>594</v>
+        <v>778</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>598</v>
+        <v>779</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
@@ -9548,16 +9658,16 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>672</v>
+        <v>781</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>674</v>
+        <v>782</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
@@ -9565,49 +9675,61 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>673</v>
+        <v>783</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>675</v>
+        <v>784</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
     </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+    </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>465</v>
+        <v>786</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>722</v>
+        <v>461</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>723</v>
+        <v>462</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>183</v>
@@ -9615,10 +9737,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>721</v>
+        <v>463</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>720</v>
+        <v>464</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>183</v>
@@ -9626,10 +9748,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>469</v>
+        <v>706</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>470</v>
+        <v>707</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>183</v>
@@ -9637,112 +9759,100 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>471</v>
+        <v>705</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E98" s="25"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
+        <v>704</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+    </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="E101" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="F101" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="F103" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="G101" s="37" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
+      <c r="G103" s="35" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="16" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
+        <v>472</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
@@ -9750,16 +9860,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
@@ -9767,27 +9877,33 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
-        <v>607</v>
+        <v>479</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
@@ -9795,50 +9911,135 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="16" t="s">
-        <v>621</v>
+        <v>481</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+    </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>491</v>
+      <c r="A111" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>183</v>
       </c>
     </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="73">
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="A4:C4"/>
@@ -9855,59 +10056,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
+++ b/插件详细手册/0.性能测试报告/性能测试统计表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE761E66-D363-46C1-A6C7-6D106DAB0FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B254591-893B-43B5-A0C1-877D154B3191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="811">
   <si>
     <t>行走图 - 图块同步镜像</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1820,30 +1820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOG_MenuCursor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单 - 菜单指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOG_CursorBorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单 - 菜单选项外框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOG_Scrollbar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单 - 滚动条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drill_MenuBackground</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3295,6 +3271,94 @@
   </si>
   <si>
     <t xml:space="preserve">  12.06ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_LayerAnimTile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图 - 动态图块帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_BattleEventExtend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗 - 战斗事件扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_CoreOfString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统 - 字符串核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_MenuCursorBorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单 - 多样式菜单选项边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_MenuCursor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单 - 多样式菜单指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_MenuScrollBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单 - 多样式菜单滚动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.56ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  21.51ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  60.93ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  69.46ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  56.60ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  25.73ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  7.33ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  29.31ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  9.56ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  40.75ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3532,10 +3596,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3553,25 +3629,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3917,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H163"/>
+  <dimension ref="A2:H169"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143:G143"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -3945,101 +4009,101 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="D12" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -4076,12 +4140,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -4093,12 +4157,12 @@
       <c r="C15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -4110,12 +4174,12 @@
       <c r="C16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -4127,144 +4191,144 @@
       <c r="C17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="34" t="s">
-        <v>727</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="D22" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="24" t="s">
+        <v>720</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>730</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>793</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>794</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -4272,50 +4336,50 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -4323,33 +4387,33 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>182</v>
+        <v>409</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -4357,159 +4421,153 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>410</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>756</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>757</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>182</v>
+        <v>410</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B36" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C36" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>631</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>183</v>
+        <v>632</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>14</v>
@@ -4517,22 +4575,22 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -4540,22 +4598,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>387</v>
+        <v>689</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>146</v>
+        <v>690</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>388</v>
+        <v>691</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>14</v>
@@ -4563,22 +4621,22 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>731</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>732</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>735</v>
+        <v>387</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>734</v>
+        <v>146</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>733</v>
+        <v>388</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>14</v>
@@ -4586,22 +4644,22 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>725</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>726</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>157</v>
+      <c r="D43" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>727</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>14</v>
@@ -4609,181 +4667,175 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>628</v>
+        <v>789</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>629</v>
+        <v>790</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>627</v>
+      <c r="D44" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>622</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>623</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>505</v>
+      <c r="D46" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>183</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>183</v>
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>43</v>
@@ -4792,7 +4844,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>17</v>
@@ -4803,22 +4855,22 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>14</v>
@@ -4826,22 +4878,22 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>14</v>
@@ -4849,22 +4901,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>576</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>579</v>
+      <c r="D57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>14</v>
@@ -4872,22 +4924,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>14</v>
@@ -4895,188 +4947,188 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>636</v>
+      <c r="D59" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>573</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>678</v>
+        <v>557</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>679</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>559</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>560</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>673</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>570</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>571</v>
+        <v>75</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>14</v>
@@ -5084,22 +5136,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>615</v>
+        <v>564</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>619</v>
+      <c r="D69" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>618</v>
+        <v>390</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>14</v>
@@ -5107,39 +5159,45 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
+        <v>180</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>609</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>610</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>574</v>
+        <v>43</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>613</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>390</v>
+        <v>611</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>390</v>
+        <v>612</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>14</v>
@@ -5147,45 +5205,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D72" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>580</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>581</v>
+        <v>90</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>583</v>
+        <v>390</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>584</v>
+        <v>390</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>14</v>
@@ -5193,22 +5245,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>512</v>
+        <v>379</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>513</v>
+        <v>145</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>14</v>
@@ -5216,22 +5268,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>574</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>156</v>
+        <v>43</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>154</v>
+        <v>577</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>155</v>
+        <v>578</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>14</v>
@@ -5239,96 +5291,102 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>523</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
+      <c r="D76" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>518</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>87</v>
+        <v>517</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>14</v>
@@ -5336,142 +5394,136 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>749</v>
+        <v>88</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>750</v>
+        <v>378</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D82" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+      <c r="D82" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>528</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>178</v>
+        <v>411</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>522</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>99</v>
+        <v>519</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="G87" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>531</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>14</v>
@@ -5479,194 +5531,194 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>527</v>
+        <v>99</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D89" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="E89" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="G89" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>525</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>524</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="E90" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="E90" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G90" s="15" t="s">
+      <c r="F90" s="1" t="s">
         <v>546</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>14</v>
+        <v>535</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>514</v>
+        <v>109</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>515</v>
+        <v>110</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="F97" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>519</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>556</v>
+        <v>510</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>557</v>
+        <v>511</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>558</v>
+        <v>512</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>14</v>
@@ -5674,78 +5726,102 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>14</v>
+        <v>536</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>116</v>
+        <v>527</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>382</v>
+        <v>551</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>183</v>
+        <v>116</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>183</v>
@@ -5753,10 +5829,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>183</v>
@@ -5764,10 +5840,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>183</v>
@@ -5775,10 +5851,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>183</v>
@@ -5786,10 +5862,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>183</v>
@@ -5797,10 +5873,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>183</v>
@@ -5808,10 +5884,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>183</v>
@@ -5819,78 +5895,78 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>736</v>
+        <v>198</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>14</v>
+        <v>199</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>751</v>
+        <v>200</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G112" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>274</v>
+        <v>745</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>213</v>
+        <v>746</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>213</v>
@@ -5898,10 +5974,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>213</v>
@@ -5909,10 +5985,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>213</v>
@@ -5920,10 +5996,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>213</v>
@@ -5931,10 +6007,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>213</v>
@@ -5942,10 +6018,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>213</v>
@@ -5953,220 +6029,208 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>721</v>
-      </c>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>709</v>
-      </c>
       <c r="C127" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="E127" s="7" t="s">
+      <c r="D127" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
-        <v>710</v>
+        <v>296</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>711</v>
+        <v>297</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="D128" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
+      <c r="G128" s="26"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B131" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" s="25" t="s">
+      <c r="C131" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="25"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="25"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D132" s="25" t="s">
+      <c r="D132" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>611</v>
+        <v>302</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>612</v>
+        <v>303</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D134" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="E134" s="25"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="25"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E135" s="25"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="25"/>
-    </row>
-    <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>307</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
@@ -6174,68 +6238,56 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>607</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>127</v>
+        <v>608</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D137" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+    </row>
+    <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D138" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>765</v>
+        <v>126</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>766</v>
+        <v>127</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>767</v>
+        <v>130</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>768</v>
+        <v>131</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>769</v>
+        <v>132</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>14</v>
@@ -6243,22 +6295,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>764</v>
+        <v>128</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>770</v>
+        <v>129</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>771</v>
+        <v>133</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>772</v>
+        <v>134</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>773</v>
+        <v>135</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>14</v>
@@ -6266,256 +6318,256 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>643</v>
+        <v>759</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>645</v>
+        <v>761</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>646</v>
+        <v>762</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>647</v>
+        <v>763</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>648</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>312</v>
+        <v>637</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>314</v>
+        <v>638</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>681</v>
+        <v>312</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>682</v>
+        <v>314</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>684</v>
-      </c>
-      <c r="E145" s="23" t="s">
-        <v>685</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>792</v>
+        <v>315</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>793</v>
+        <v>316</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D146" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>791</v>
+        <v>676</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>318</v>
+        <v>786</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
+        <v>787</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>649</v>
+        <v>784</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>650</v>
+        <v>785</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>653</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>322</v>
+        <v>643</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>14</v>
+        <v>644</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>14</v>
+        <v>324</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>658</v>
+      <c r="D154" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>653</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>660</v>
+        <v>327</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>668</v>
+      <c r="D155" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>14</v>
@@ -6523,45 +6575,45 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>671</v>
+      <c r="D156" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>14</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>14</v>
@@ -6569,163 +6621,216 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>758</v>
+        <v>658</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>759</v>
+        <v>655</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>762</v>
+        <v>663</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>761</v>
+        <v>664</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>760</v>
+        <v>665</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>330</v>
+        <v>752</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>331</v>
+        <v>753</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D160" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G161" s="1" t="s">
+      <c r="D160" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>506</v>
+        <v>797</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>507</v>
+        <v>798</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="D162" s="24" t="s">
+        <v>807</v>
+      </c>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D163" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D163" s="6" t="s">
+      <c r="C169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G169" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D81:G81"/>
+  <mergeCells count="67">
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="D83:G83"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D12:G12"/>
@@ -6734,12 +6839,61 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D166:G166"/>
+    <mergeCell ref="D150:G150"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="D149:G149"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6750,10 +6904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H123"/>
+  <dimension ref="A2:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D103" sqref="C103:G103"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6778,86 +6932,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="18"/>
-      <c r="D11" s="27" t="s">
-        <v>585</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="D11" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -6892,12 +7046,12 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -6909,12 +7063,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -6926,12 +7080,12 @@
       <c r="C15" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -6943,144 +7097,144 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>729</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>722</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>728</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>730</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="24" t="s">
+        <v>724</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>793</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>794</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -7088,50 +7242,50 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -7139,33 +7293,33 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>182</v>
+        <v>419</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -7173,55 +7327,61 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>756</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>757</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>182</v>
+        <v>418</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>213</v>
-      </c>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>213</v>
@@ -7229,10 +7389,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>213</v>
@@ -7240,10 +7400,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>213</v>
@@ -7251,21 +7411,21 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>215</v>
+      <c r="A38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>213</v>
@@ -7273,38 +7433,38 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>213</v>
@@ -7312,10 +7472,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>213</v>
@@ -7323,78 +7483,84 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B45" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>226</v>
+        <v>624</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>213</v>
+        <v>625</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>213</v>
@@ -7402,10 +7568,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>213</v>
@@ -7413,10 +7579,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>213</v>
@@ -7424,33 +7590,21 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>309</v>
+        <v>233</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>213</v>
@@ -7458,54 +7612,66 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>213</v>
@@ -7513,10 +7679,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>213</v>
@@ -7524,10 +7690,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>213</v>
@@ -7535,49 +7701,49 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
+        <v>251</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>254</v>
+        <v>398</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>213</v>
@@ -7585,10 +7751,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>213</v>
@@ -7596,10 +7762,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>213</v>
@@ -7607,10 +7773,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>213</v>
@@ -7618,10 +7784,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>213</v>
@@ -7629,10 +7795,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>213</v>
@@ -7640,10 +7806,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>213</v>
@@ -7651,43 +7817,43 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>213</v>
@@ -7695,10 +7861,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>213</v>
@@ -7706,10 +7872,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>213</v>
@@ -7717,10 +7883,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>213</v>
@@ -7728,10 +7894,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>213</v>
@@ -7739,10 +7905,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>213</v>
@@ -7750,72 +7916,60 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>720</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>719</v>
-      </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>709</v>
-      </c>
       <c r="C87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>305</v>
+        <v>714</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -7823,16 +7977,16 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="16" t="s">
-        <v>710</v>
+        <v>296</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>711</v>
+        <v>297</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>305</v>
+        <v>713</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -7840,602 +7994,692 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B91" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="25" t="s">
+      <c r="C91" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>611</v>
+        <v>302</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>612</v>
+        <v>303</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-    </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D96" s="34" t="s">
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D97" s="24" t="s">
+      <c r="D99" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="24" t="s">
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>774</v>
-      </c>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>775</v>
-      </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>643</v>
+        <v>759</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>644</v>
+        <v>760</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>305</v>
+        <v>768</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="D105" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>683</v>
-      </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>691</v>
-      </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>14</v>
+        <v>323</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D114" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>663</v>
+        <v>325</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>660</v>
+        <v>326</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D115" s="25" t="s">
-        <v>693</v>
-      </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
+      <c r="D115" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D116" s="25" t="s">
-        <v>692</v>
-      </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
+      <c r="D116" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D117" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
+      <c r="D117" s="24" t="s">
+        <v>687</v>
+      </c>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>758</v>
+        <v>658</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>759</v>
+        <v>655</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>763</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
+      <c r="D118" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>335</v>
+        <v>752</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>336</v>
+        <v>753</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>339</v>
+        <v>797</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>368</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>806</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D104:G104"/>
+  <mergeCells count="68">
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
     <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D119:G119"/>
     <mergeCell ref="D106:G106"/>
     <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D117:G117"/>
     <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D93:G93"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D98:G98"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8446,10 +8690,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H115"/>
+  <dimension ref="A2:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8474,86 +8718,86 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="31" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="32" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="28" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="B11" s="30"/>
+      <c r="A11" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="34"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="D11" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -8567,16 +8811,16 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -8590,12 +8834,12 @@
       <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -8607,12 +8851,12 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -8624,12 +8868,12 @@
       <c r="C15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -8641,144 +8885,144 @@
       <c r="C16" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>597</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>748</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>746</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>793</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>794</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -8786,50 +9030,50 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="D25" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -8837,89 +9081,95 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+        <v>180</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>756</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>757</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>182</v>
+        <v>418</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>183</v>
-      </c>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>183</v>
@@ -8927,10 +9177,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>183</v>
@@ -8938,10 +9188,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>183</v>
@@ -8949,10 +9199,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>183</v>
@@ -8960,10 +9210,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>183</v>
@@ -8971,10 +9221,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>183</v>
@@ -8982,10 +9232,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>183</v>
@@ -8993,243 +9243,237 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D42" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="C45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="24" t="s">
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="24" t="s">
+      <c r="C54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>794</v>
-      </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
+      <c r="D56" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>681</v>
+        <v>315</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>682</v>
+        <v>316</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -9237,50 +9481,50 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>792</v>
+        <v>675</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>793</v>
+        <v>676</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
+        <v>43</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>317</v>
+        <v>784</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>319</v>
+        <v>785</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -9288,117 +9532,135 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>649</v>
+        <v>317</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>650</v>
+        <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="24" t="s">
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="24" t="s">
+      <c r="C65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>425</v>
+        <v>593</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>427</v>
+        <v>797</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>429</v>
+        <v>795</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>431</v>
+        <v>799</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>432</v>
+        <v>800</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>607</v>
+        <v>803</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
@@ -9406,106 +9668,112 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
+      <c r="D72" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
+      <c r="D74" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>441</v>
+        <v>735</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>736</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>183</v>
@@ -9513,10 +9781,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>183</v>
@@ -9524,10 +9792,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>183</v>
@@ -9535,10 +9803,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>183</v>
@@ -9546,55 +9814,55 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
+        <v>444</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>601</v>
+        <v>445</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>602</v>
+        <v>446</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>453</v>
+        <v>595</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>183</v>
@@ -9602,10 +9870,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>183</v>
@@ -9613,10 +9881,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>183</v>
@@ -9624,123 +9892,123 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>776</v>
+        <v>453</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
+        <v>454</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D89" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
+      <c r="D89" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
+      <c r="D90" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
+      <c r="D91" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
+      <c r="D92" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="D93" s="24" t="s">
+        <v>783</v>
+      </c>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>782</v>
+      </c>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>183</v>
@@ -9748,10 +10016,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>706</v>
+        <v>457</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>707</v>
+        <v>458</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>183</v>
@@ -9759,10 +10027,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>183</v>
@@ -9770,10 +10038,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>465</v>
+        <v>699</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>466</v>
+        <v>698</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>183</v>
@@ -9781,190 +10049,196 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+        <v>460</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="E103" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="F103" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D102" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="E104" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="F104" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="G103" s="35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>183</v>
+      <c r="G104" s="37" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
+        <v>466</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D106" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="E106" s="25"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
+      <c r="D106" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="16" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D107" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="25"/>
+      <c r="D107" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="16" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D108" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="25"/>
+      <c r="D108" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="16" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="16" t="s">
-        <v>595</v>
+        <v>475</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>596</v>
-      </c>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
+        <v>476</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="16" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H113" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>183</v>
@@ -9972,90 +10246,113 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H115" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>809</v>
+      </c>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="D110:G110"/>
+  <mergeCells count="79">
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D88:G88"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
